--- a/code/数据库设计/中原数据库/中原剧本.xlsx
+++ b/code/数据库设计/中原数据库/中原剧本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A1ADB3-DEE3-4194-80FF-1FE987CA609E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5D86D-49FF-4608-8DE8-E8F32E4D02C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="midFaction" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
   <si>
     <t>永安</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -211,10 +211,6 @@
   </si>
   <si>
     <t>FactionLeaderPersonID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FactionCapitalID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1539,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3FCDBE-1DB0-4092-8A91-C497901EAC8C}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1550,10 +1546,9 @@
     <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1563,344 +1558,269 @@
       <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>53</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
       </c>
       <c r="C9">
         <v>108</v>
       </c>
-      <c r="D9">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>192</v>
       </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C11">
         <v>181</v>
       </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C12">
         <v>182</v>
       </c>
-      <c r="D12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C13">
         <v>88</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14">
         <v>101</v>
       </c>
-      <c r="D14">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15">
         <v>80</v>
       </c>
-      <c r="D15">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C16">
         <v>199</v>
       </c>
-      <c r="D16">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C17">
         <v>38</v>
       </c>
-      <c r="D17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C18">
         <v>215</v>
       </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C19">
         <v>216</v>
       </c>
-      <c r="D19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C20">
         <v>217</v>
       </c>
-      <c r="D20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C21">
         <v>218</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C22">
         <v>219</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C23">
         <v>220</v>
       </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C24">
         <v>104</v>
       </c>
-      <c r="D24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25">
         <v>89</v>
-      </c>
-      <c r="D25">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1962,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1994,7 +1914,7 @@
         <v>60</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2026,7 +1946,7 @@
         <v>60</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2034,7 +1954,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -2058,7 +1978,7 @@
         <v>60</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2090,7 +2010,7 @@
         <v>60</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2154,7 +2074,7 @@
         <v>60</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2186,7 +2106,7 @@
         <v>60</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2218,7 +2138,7 @@
         <v>60</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2250,7 +2170,7 @@
         <v>60</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2282,7 +2202,7 @@
         <v>60</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2314,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2346,7 +2266,7 @@
         <v>60</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2378,7 +2298,7 @@
         <v>60</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2410,7 +2330,7 @@
         <v>60</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2442,7 +2362,7 @@
         <v>60</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2506,7 +2426,7 @@
         <v>60</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2538,7 +2458,7 @@
         <v>60</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2570,7 +2490,7 @@
         <v>60</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2602,7 +2522,7 @@
         <v>60</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2634,7 +2554,7 @@
         <v>60</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2642,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -2666,7 +2586,7 @@
         <v>60</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2698,7 +2618,7 @@
         <v>60</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2730,7 +2650,7 @@
         <v>60</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2762,7 +2682,7 @@
         <v>60</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2794,7 +2714,7 @@
         <v>60</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2826,7 +2746,7 @@
         <v>60</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2858,7 +2778,7 @@
         <v>60</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2890,7 +2810,7 @@
         <v>60</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2922,7 +2842,7 @@
         <v>60</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2954,7 +2874,7 @@
         <v>60</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2986,7 +2906,7 @@
         <v>60</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3101,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5109D5-EC72-404A-B13C-855F4594F600}">
   <dimension ref="A1:K222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+    <sheetView topLeftCell="A198" workbookViewId="0">
       <selection activeCell="O213" sqref="O213"/>
     </sheetView>
   </sheetViews>
@@ -3122,34 +3042,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3157,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -3188,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -3219,7 +3139,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -3250,7 +3170,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -3281,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -3312,7 +3232,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C7">
         <v>156</v>
@@ -3343,7 +3263,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -3374,7 +3294,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -3405,7 +3325,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -3436,7 +3356,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -3467,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -3498,7 +3418,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -3529,7 +3449,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -3560,7 +3480,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -3591,7 +3511,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -3622,7 +3542,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -3653,7 +3573,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -3684,7 +3604,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -3715,7 +3635,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -3746,7 +3666,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -3777,7 +3697,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -3808,7 +3728,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -3839,7 +3759,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -3870,7 +3790,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -3901,7 +3821,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -3932,7 +3852,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -3963,7 +3883,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -3994,7 +3914,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -4025,7 +3945,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -4056,7 +3976,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -4087,7 +4007,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -4118,7 +4038,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -4149,7 +4069,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -4180,7 +4100,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -4211,7 +4131,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -4242,7 +4162,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -4273,7 +4193,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -4304,7 +4224,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -4335,7 +4255,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -4366,7 +4286,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -4397,7 +4317,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -4428,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -4459,7 +4379,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -4490,7 +4410,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -4521,7 +4441,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -4552,7 +4472,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -4583,7 +4503,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -4614,7 +4534,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -4645,7 +4565,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -4676,7 +4596,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4707,7 +4627,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -4738,7 +4658,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -4769,7 +4689,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -4800,7 +4720,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -4831,7 +4751,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -4862,7 +4782,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -4893,7 +4813,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -4924,7 +4844,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -4955,7 +4875,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -4986,7 +4906,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -5017,7 +4937,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -5048,7 +4968,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -5079,7 +4999,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -5110,7 +5030,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -5141,7 +5061,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -5172,7 +5092,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C67">
         <v>163</v>
@@ -5203,7 +5123,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -5234,7 +5154,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -5265,7 +5185,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -5296,7 +5216,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -5327,7 +5247,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -5358,7 +5278,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -5389,7 +5309,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -5420,7 +5340,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -5451,7 +5371,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -5482,7 +5402,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -5513,7 +5433,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -5544,7 +5464,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -5575,7 +5495,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -5606,7 +5526,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -5637,7 +5557,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -5668,7 +5588,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -5699,7 +5619,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -5730,7 +5650,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -5761,7 +5681,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -5792,7 +5712,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -5823,7 +5743,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -5854,7 +5774,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -5885,7 +5805,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -5916,7 +5836,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -5947,7 +5867,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -5978,7 +5898,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -6009,7 +5929,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -6040,7 +5960,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -6071,7 +5991,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -6102,7 +6022,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -6133,7 +6053,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -6164,7 +6084,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -6195,7 +6115,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -6226,7 +6146,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -6257,7 +6177,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6288,7 +6208,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -6319,7 +6239,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -6350,7 +6270,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -6381,7 +6301,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -6412,7 +6332,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -6443,7 +6363,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -6474,7 +6394,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -6505,7 +6425,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -6536,7 +6456,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -6567,7 +6487,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -6598,7 +6518,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -6629,7 +6549,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -6660,7 +6580,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -6691,7 +6611,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -6722,7 +6642,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -6753,7 +6673,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -6784,7 +6704,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -6815,7 +6735,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -6846,7 +6766,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -6877,7 +6797,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -6908,7 +6828,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -6939,7 +6859,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -6970,7 +6890,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -7001,7 +6921,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -7032,7 +6952,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -7063,7 +6983,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -7094,7 +7014,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -7125,7 +7045,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -7156,7 +7076,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -7187,7 +7107,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -7218,7 +7138,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -7249,7 +7169,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -7280,7 +7200,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -7311,7 +7231,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -7342,7 +7262,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -7373,7 +7293,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -7404,7 +7324,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -7435,7 +7355,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -7466,7 +7386,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -7497,7 +7417,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -7528,7 +7448,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -7559,7 +7479,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -7590,7 +7510,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -7621,7 +7541,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -7652,7 +7572,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -7683,7 +7603,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -7714,7 +7634,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -7745,7 +7665,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -7776,7 +7696,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -7807,7 +7727,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -7838,7 +7758,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -7869,7 +7789,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -7900,7 +7820,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -7931,7 +7851,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -7962,7 +7882,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -7993,7 +7913,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -8024,7 +7944,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -8055,7 +7975,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -8086,7 +8006,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -8117,7 +8037,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -8148,7 +8068,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -8179,7 +8099,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -8210,7 +8130,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -8241,7 +8161,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -8272,7 +8192,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -8303,7 +8223,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -8334,7 +8254,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -8365,7 +8285,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -8396,7 +8316,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -8427,7 +8347,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -8458,7 +8378,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -8489,7 +8409,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -8520,7 +8440,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -8551,7 +8471,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -8582,7 +8502,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -8613,7 +8533,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -8644,7 +8564,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -8675,7 +8595,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -8706,7 +8626,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -8737,7 +8657,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -8768,7 +8688,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -8799,7 +8719,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -8830,7 +8750,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -8861,7 +8781,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -8892,7 +8812,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -8923,7 +8843,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -8954,7 +8874,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -8985,7 +8905,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -9016,7 +8936,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -9047,7 +8967,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -9078,7 +8998,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -9109,7 +9029,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -9140,7 +9060,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -9171,7 +9091,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -9202,7 +9122,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -9233,7 +9153,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -9264,7 +9184,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -9295,7 +9215,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -9326,7 +9246,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -9357,7 +9277,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -9388,7 +9308,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -9419,7 +9339,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -9450,7 +9370,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -9481,7 +9401,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -9512,7 +9432,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -9543,7 +9463,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -9574,7 +9494,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -9605,7 +9525,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -9636,7 +9556,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -9667,7 +9587,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -9698,7 +9618,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -9729,7 +9649,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -9760,7 +9680,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C215">
         <v>155</v>
@@ -9791,7 +9711,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C216">
         <v>140</v>
@@ -9821,7 +9741,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C217">
         <v>144</v>
@@ -9851,7 +9771,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C218">
         <v>147</v>
@@ -9881,7 +9801,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C219">
         <v>150</v>
@@ -9911,7 +9831,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C220">
         <v>140</v>
@@ -9941,7 +9861,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C221">
         <v>144</v>
@@ -9971,7 +9891,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C222">
         <v>147</v>

--- a/code/数据库设计/中原数据库/中原剧本.xlsx
+++ b/code/数据库设计/中原数据库/中原剧本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5D86D-49FF-4608-8DE8-E8F32E4D02C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9132A-5C60-4012-96FD-264E93ADC2BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="midFaction" sheetId="3" r:id="rId1"/>
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">midCity!$A$1:$J$36</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">midPerson!$A$1:$K$219</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">midPerson!$A$1:$J$222</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="334">
   <si>
     <t>永安</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -254,780 +254,769 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>张超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>广陵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上党</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆康</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祖茂</t>
+  </si>
+  <si>
+    <t>邹靖</t>
+  </si>
+  <si>
+    <t>邹丹</t>
+  </si>
+  <si>
+    <t>朱治</t>
+  </si>
+  <si>
+    <t>朱儁</t>
+  </si>
+  <si>
+    <t>周昕</t>
+  </si>
+  <si>
+    <t>周仓</t>
+  </si>
+  <si>
+    <t>钟鳐</t>
+  </si>
+  <si>
+    <t>赵云</t>
+  </si>
+  <si>
+    <t>赵弘</t>
+  </si>
+  <si>
+    <t>赵范</t>
+  </si>
+  <si>
+    <t>张昭</t>
+  </si>
+  <si>
+    <t>张允</t>
+  </si>
+  <si>
+    <t>张英</t>
+  </si>
+  <si>
+    <t>张扬</t>
+  </si>
+  <si>
+    <t>张燕</t>
+  </si>
+  <si>
+    <t>张繍</t>
+  </si>
+  <si>
+    <t>张任</t>
+  </si>
+  <si>
+    <t>张邈</t>
+  </si>
+  <si>
+    <t>张鲁</t>
+  </si>
+  <si>
+    <t>张辽</t>
+  </si>
+  <si>
+    <t>张梁</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>张济</t>
+  </si>
+  <si>
+    <t>张紘</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>张动</t>
+  </si>
+  <si>
+    <t>张宝</t>
+  </si>
+  <si>
+    <t>笮融</t>
+  </si>
+  <si>
+    <t>臧霸</t>
+  </si>
+  <si>
+    <t>袁胤</t>
+  </si>
+  <si>
+    <t>袁遗</t>
+  </si>
+  <si>
+    <t>袁术</t>
+  </si>
+  <si>
+    <t>袁绍</t>
+  </si>
+  <si>
+    <t>虞翻</t>
+  </si>
+  <si>
+    <t>俞涉</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>伊籍</t>
+  </si>
+  <si>
+    <t>杨怀</t>
+  </si>
+  <si>
+    <t>杨弘</t>
+  </si>
+  <si>
+    <t>杨奉</t>
+  </si>
+  <si>
+    <t>杨丑</t>
+  </si>
+  <si>
+    <t>颜良</t>
+  </si>
+  <si>
+    <t>阎象</t>
+  </si>
+  <si>
+    <t>阎柔</t>
+  </si>
+  <si>
+    <t>阎圃</t>
+  </si>
+  <si>
+    <t>严政</t>
+  </si>
+  <si>
+    <t>严颜</t>
+  </si>
+  <si>
+    <t>严兴</t>
+  </si>
+  <si>
+    <t>严纲</t>
+  </si>
+  <si>
+    <t>严白虎</t>
+  </si>
+  <si>
+    <t>荀攸</t>
+  </si>
+  <si>
+    <t>荀或</t>
+  </si>
+  <si>
+    <t>许攸</t>
+  </si>
+  <si>
+    <t>许靖</t>
+  </si>
+  <si>
+    <t>许贡</t>
+  </si>
+  <si>
+    <t>徐荣</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>盱固</t>
+  </si>
+  <si>
+    <t>辛毗</t>
+  </si>
+  <si>
+    <t>向朗</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>夏侯敦</t>
+  </si>
+  <si>
+    <t>戏志才</t>
+  </si>
+  <si>
+    <t>武安国</t>
+  </si>
+  <si>
+    <t>吴懿</t>
+  </si>
+  <si>
+    <t>吴巨</t>
+  </si>
+  <si>
+    <t>文丑</t>
+  </si>
+  <si>
+    <t>魏攸</t>
+  </si>
+  <si>
+    <t>魏続</t>
+  </si>
+  <si>
+    <t>王忠</t>
+  </si>
+  <si>
+    <t>王允</t>
+  </si>
+  <si>
+    <t>王修</t>
+  </si>
+  <si>
+    <t>王威</t>
+  </si>
+  <si>
+    <t>王門</t>
+  </si>
+  <si>
+    <t>王朗</t>
+  </si>
+  <si>
+    <t>王匡</t>
+  </si>
+  <si>
+    <t>田楷</t>
+  </si>
+  <si>
+    <t>田丰</t>
+  </si>
+  <si>
+    <t>田畴</t>
+  </si>
+  <si>
+    <t>太史慈</t>
+  </si>
+  <si>
+    <t>孙仲</t>
+  </si>
+  <si>
+    <t>孙乾</t>
+  </si>
+  <si>
+    <t>孙静</t>
+  </si>
+  <si>
+    <t>苏由</t>
+  </si>
+  <si>
+    <t>宋憲</t>
+  </si>
+  <si>
+    <t>审配</t>
+  </si>
+  <si>
+    <t>沙摩柯</t>
+  </si>
+  <si>
+    <t>麹义</t>
+  </si>
+  <si>
+    <t>桥瑁</t>
+  </si>
+  <si>
+    <t>裴元绍</t>
+  </si>
+  <si>
+    <t>庞羲</t>
+  </si>
+  <si>
+    <t>潘凤</t>
+  </si>
+  <si>
+    <t>牛辅</t>
+  </si>
+  <si>
+    <t>穆顺</t>
+  </si>
+  <si>
+    <t>糜竺</t>
+  </si>
+  <si>
+    <t>糜芳</t>
+  </si>
+  <si>
+    <t>毛阶</t>
+  </si>
+  <si>
+    <t>吕翔</t>
+  </si>
+  <si>
+    <t>吕威璜</t>
+  </si>
+  <si>
+    <t>吕旷</t>
+  </si>
+  <si>
+    <t>吕范</t>
+  </si>
+  <si>
+    <t>吕岱</t>
+  </si>
+  <si>
+    <t>吕布</t>
+  </si>
+  <si>
+    <t>卢植</t>
+  </si>
+  <si>
+    <t>刘璋</t>
+  </si>
+  <si>
+    <t>刘虞</t>
+  </si>
+  <si>
+    <t>刘鳐</t>
+  </si>
+  <si>
+    <t>刘辟</t>
+  </si>
+  <si>
+    <t>刘馈</t>
+  </si>
+  <si>
+    <t>刘度</t>
+  </si>
+  <si>
+    <t>刘动</t>
+  </si>
+  <si>
+    <t>刘岱</t>
+  </si>
+  <si>
+    <t>刘表</t>
+  </si>
+  <si>
+    <t>凌操</t>
+  </si>
+  <si>
+    <t>梁兴</t>
+  </si>
+  <si>
+    <t>李通</t>
+  </si>
+  <si>
+    <t>李肃</t>
+  </si>
+  <si>
+    <t>李儒</t>
+  </si>
+  <si>
+    <t>李摧</t>
+  </si>
+  <si>
+    <t>雷薄</t>
+  </si>
+  <si>
+    <t>乐就</t>
+  </si>
+  <si>
+    <t>乐进</t>
+  </si>
+  <si>
+    <t>蒯越</t>
+  </si>
+  <si>
+    <t>蒯良</t>
+  </si>
+  <si>
+    <t>孔融</t>
+  </si>
+  <si>
+    <t>沮授</t>
+  </si>
+  <si>
+    <t>金旋</t>
+  </si>
+  <si>
+    <t>蒋义渠</t>
+  </si>
+  <si>
+    <t>蒋钦</t>
+  </si>
+  <si>
+    <t>简雍</t>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>纪灵</t>
+  </si>
+  <si>
+    <t>黄祖</t>
+  </si>
+  <si>
+    <t>黄忠</t>
+  </si>
+  <si>
+    <t>黄权</t>
+  </si>
+  <si>
+    <t>黄盖</t>
+  </si>
+  <si>
+    <t>皇甫嵩</t>
+  </si>
+  <si>
+    <t>华雄</t>
+  </si>
+  <si>
+    <t>华歆</t>
+  </si>
+  <si>
+    <t>胡轸</t>
+  </si>
+  <si>
+    <t>侯成</t>
+  </si>
+  <si>
+    <t>何仪</t>
+  </si>
+  <si>
+    <t>韩忠</t>
+  </si>
+  <si>
+    <t>韩胤</t>
+  </si>
+  <si>
+    <t>韩玄</t>
+  </si>
+  <si>
+    <t>韩暹</t>
+  </si>
+  <si>
+    <t>韩嵩</t>
+  </si>
+  <si>
+    <t>韩浩</t>
+  </si>
+  <si>
+    <t>韩馥</t>
+  </si>
+  <si>
+    <t>韩当</t>
+  </si>
+  <si>
+    <t>郭图</t>
+  </si>
+  <si>
+    <t>郭汜</t>
+  </si>
+  <si>
+    <t>管亥</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>关靖</t>
+  </si>
+  <si>
+    <t>龚都</t>
+  </si>
+  <si>
+    <t>公孙越</t>
+  </si>
+  <si>
+    <t>公孙范</t>
+  </si>
+  <si>
+    <t>公孙度</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>高升</t>
+  </si>
+  <si>
+    <t>高览</t>
+  </si>
+  <si>
+    <t>高干</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>傅巽</t>
+  </si>
+  <si>
+    <t>逢纪</t>
+  </si>
+  <si>
+    <t>方悦</t>
+  </si>
+  <si>
+    <t>樊稠</t>
+  </si>
+  <si>
+    <t>董昭</t>
+  </si>
+  <si>
+    <t>董袭</t>
+  </si>
+  <si>
+    <t>董旻</t>
+  </si>
+  <si>
+    <t>董和</t>
+  </si>
+  <si>
+    <t>董承</t>
+  </si>
+  <si>
+    <t>丁原</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>邓茂</t>
+  </si>
+  <si>
+    <t>单经</t>
+  </si>
+  <si>
+    <t>崔琰</t>
+  </si>
+  <si>
+    <t>淳于琼</t>
+  </si>
+  <si>
+    <t>程远志</t>
+  </si>
+  <si>
+    <t>程昱</t>
+  </si>
+  <si>
+    <t>程银</t>
+  </si>
+  <si>
+    <t>程普</t>
+  </si>
+  <si>
+    <t>成宜</t>
+  </si>
+  <si>
+    <t>陈群</t>
+  </si>
+  <si>
+    <t>陈琳</t>
+  </si>
+  <si>
+    <t>陈兰</t>
+  </si>
+  <si>
+    <t>陈纪</t>
+  </si>
+  <si>
+    <t>陈横</t>
+  </si>
+  <si>
+    <t>陈珪</t>
+  </si>
+  <si>
+    <t>陈宫</t>
+  </si>
+  <si>
+    <t>陈登</t>
+  </si>
+  <si>
+    <t>车胄</t>
+  </si>
+  <si>
+    <t>曹性</t>
+  </si>
+  <si>
+    <t>曹仁</t>
+  </si>
+  <si>
+    <t>曹洪</t>
+  </si>
+  <si>
+    <t>曹豹</t>
+  </si>
+  <si>
+    <t>蔡中</t>
+  </si>
+  <si>
+    <t>蔡瑁</t>
+  </si>
+  <si>
+    <t>蔡和</t>
+  </si>
+  <si>
+    <t>卞喜</t>
+  </si>
+  <si>
+    <t>鲍信</t>
+  </si>
+  <si>
+    <t>刘焉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陶谦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公孙瓒</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>董卓</t>
+  </si>
+  <si>
+    <t>何进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personState</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCityID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personLoyal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personTrick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personPolitics</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personMilitary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personCommand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personBirthYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>personID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁绍军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁术军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孔融军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘表军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄祖军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张燕军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边让军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴景军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛宪军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐瑁军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张超军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆康军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘度军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁原军</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边让</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴景</t>
+  </si>
+  <si>
+    <t>盛宪</t>
+  </si>
+  <si>
     <t>唐瑁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张超</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>广陵</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>上党</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祖茂</t>
-  </si>
-  <si>
-    <t>邹靖</t>
-  </si>
-  <si>
-    <t>邹丹</t>
-  </si>
-  <si>
-    <t>朱治</t>
-  </si>
-  <si>
-    <t>朱儁</t>
-  </si>
-  <si>
-    <t>周昕</t>
-  </si>
-  <si>
-    <t>周仓</t>
-  </si>
-  <si>
-    <t>钟鳐</t>
-  </si>
-  <si>
-    <t>赵云</t>
-  </si>
-  <si>
-    <t>赵弘</t>
-  </si>
-  <si>
-    <t>赵范</t>
-  </si>
-  <si>
-    <t>张昭</t>
-  </si>
-  <si>
-    <t>张允</t>
-  </si>
-  <si>
-    <t>张英</t>
-  </si>
-  <si>
-    <t>张扬</t>
-  </si>
-  <si>
-    <t>张燕</t>
-  </si>
-  <si>
-    <t>张繍</t>
-  </si>
-  <si>
-    <t>张任</t>
-  </si>
-  <si>
-    <t>张邈</t>
-  </si>
-  <si>
-    <t>张鲁</t>
-  </si>
-  <si>
-    <t>张辽</t>
-  </si>
-  <si>
-    <t>张梁</t>
-  </si>
-  <si>
-    <t>张角</t>
-  </si>
-  <si>
-    <t>张济</t>
-  </si>
-  <si>
-    <t>张紘</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>张动</t>
-  </si>
-  <si>
-    <t>张宝</t>
-  </si>
-  <si>
-    <t>笮融</t>
-  </si>
-  <si>
-    <t>臧霸</t>
-  </si>
-  <si>
-    <t>袁胤</t>
-  </si>
-  <si>
-    <t>袁遗</t>
-  </si>
-  <si>
-    <t>袁术</t>
-  </si>
-  <si>
-    <t>袁绍</t>
-  </si>
-  <si>
-    <t>虞翻</t>
-  </si>
-  <si>
-    <t>俞涉</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>伊籍</t>
-  </si>
-  <si>
-    <t>杨怀</t>
-  </si>
-  <si>
-    <t>杨弘</t>
-  </si>
-  <si>
-    <t>杨奉</t>
-  </si>
-  <si>
-    <t>杨丑</t>
-  </si>
-  <si>
-    <t>颜良</t>
-  </si>
-  <si>
-    <t>阎象</t>
-  </si>
-  <si>
-    <t>阎柔</t>
-  </si>
-  <si>
-    <t>阎圃</t>
-  </si>
-  <si>
-    <t>严政</t>
-  </si>
-  <si>
-    <t>严颜</t>
-  </si>
-  <si>
-    <t>严兴</t>
-  </si>
-  <si>
-    <t>严纲</t>
-  </si>
-  <si>
-    <t>严白虎</t>
-  </si>
-  <si>
-    <t>荀攸</t>
-  </si>
-  <si>
-    <t>荀或</t>
-  </si>
-  <si>
-    <t>许攸</t>
-  </si>
-  <si>
-    <t>许靖</t>
-  </si>
-  <si>
-    <t>许贡</t>
-  </si>
-  <si>
-    <t>徐荣</t>
-  </si>
-  <si>
-    <t>徐晃</t>
-  </si>
-  <si>
-    <t>盱固</t>
-  </si>
-  <si>
-    <t>辛毗</t>
-  </si>
-  <si>
-    <t>向朗</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>夏侯敦</t>
-  </si>
-  <si>
-    <t>戏志才</t>
-  </si>
-  <si>
-    <t>武安国</t>
-  </si>
-  <si>
-    <t>吴懿</t>
-  </si>
-  <si>
-    <t>吴巨</t>
-  </si>
-  <si>
-    <t>文丑</t>
-  </si>
-  <si>
-    <t>魏攸</t>
-  </si>
-  <si>
-    <t>魏続</t>
-  </si>
-  <si>
-    <t>王忠</t>
-  </si>
-  <si>
-    <t>王允</t>
-  </si>
-  <si>
-    <t>王修</t>
-  </si>
-  <si>
-    <t>王威</t>
-  </si>
-  <si>
-    <t>王門</t>
-  </si>
-  <si>
-    <t>王朗</t>
-  </si>
-  <si>
-    <t>王匡</t>
-  </si>
-  <si>
-    <t>田楷</t>
-  </si>
-  <si>
-    <t>田丰</t>
-  </si>
-  <si>
-    <t>田畴</t>
-  </si>
-  <si>
-    <t>太史慈</t>
-  </si>
-  <si>
-    <t>孙仲</t>
-  </si>
-  <si>
-    <t>孙乾</t>
-  </si>
-  <si>
-    <t>孙静</t>
-  </si>
-  <si>
-    <t>苏由</t>
-  </si>
-  <si>
-    <t>宋憲</t>
-  </si>
-  <si>
-    <t>审配</t>
-  </si>
-  <si>
-    <t>沙摩柯</t>
-  </si>
-  <si>
-    <t>麹义</t>
-  </si>
-  <si>
-    <t>桥瑁</t>
-  </si>
-  <si>
-    <t>裴元绍</t>
-  </si>
-  <si>
-    <t>庞羲</t>
-  </si>
-  <si>
-    <t>潘凤</t>
-  </si>
-  <si>
-    <t>牛辅</t>
-  </si>
-  <si>
-    <t>穆顺</t>
-  </si>
-  <si>
-    <t>糜竺</t>
-  </si>
-  <si>
-    <t>糜芳</t>
-  </si>
-  <si>
-    <t>毛阶</t>
-  </si>
-  <si>
-    <t>吕翔</t>
-  </si>
-  <si>
-    <t>吕威璜</t>
-  </si>
-  <si>
-    <t>吕旷</t>
-  </si>
-  <si>
-    <t>吕范</t>
-  </si>
-  <si>
-    <t>吕岱</t>
-  </si>
-  <si>
-    <t>吕布</t>
-  </si>
-  <si>
-    <t>卢植</t>
-  </si>
-  <si>
-    <t>刘璋</t>
-  </si>
-  <si>
-    <t>刘虞</t>
-  </si>
-  <si>
-    <t>刘鳐</t>
-  </si>
-  <si>
-    <t>刘辟</t>
-  </si>
-  <si>
-    <t>刘馈</t>
-  </si>
-  <si>
-    <t>刘度</t>
-  </si>
-  <si>
-    <t>刘动</t>
-  </si>
-  <si>
-    <t>刘岱</t>
-  </si>
-  <si>
-    <t>刘表</t>
-  </si>
-  <si>
-    <t>凌操</t>
-  </si>
-  <si>
-    <t>梁兴</t>
-  </si>
-  <si>
-    <t>李通</t>
-  </si>
-  <si>
-    <t>李肃</t>
-  </si>
-  <si>
-    <t>李儒</t>
-  </si>
-  <si>
-    <t>李摧</t>
-  </si>
-  <si>
-    <t>雷薄</t>
-  </si>
-  <si>
-    <t>乐就</t>
-  </si>
-  <si>
-    <t>乐进</t>
-  </si>
-  <si>
-    <t>蒯越</t>
-  </si>
-  <si>
-    <t>蒯良</t>
-  </si>
-  <si>
-    <t>孔融</t>
-  </si>
-  <si>
-    <t>沮授</t>
-  </si>
-  <si>
-    <t>金旋</t>
-  </si>
-  <si>
-    <t>蒋义渠</t>
-  </si>
-  <si>
-    <t>蒋钦</t>
-  </si>
-  <si>
-    <t>简雍</t>
-  </si>
-  <si>
-    <t>贾诩</t>
-  </si>
-  <si>
-    <t>纪灵</t>
-  </si>
-  <si>
-    <t>黄祖</t>
-  </si>
-  <si>
-    <t>黄忠</t>
-  </si>
-  <si>
-    <t>黄权</t>
-  </si>
-  <si>
-    <t>黄盖</t>
-  </si>
-  <si>
-    <t>皇甫嵩</t>
-  </si>
-  <si>
-    <t>华雄</t>
-  </si>
-  <si>
-    <t>华歆</t>
-  </si>
-  <si>
-    <t>胡轸</t>
-  </si>
-  <si>
-    <t>侯成</t>
-  </si>
-  <si>
-    <t>何仪</t>
-  </si>
-  <si>
-    <t>韩忠</t>
-  </si>
-  <si>
-    <t>韩胤</t>
-  </si>
-  <si>
-    <t>韩玄</t>
-  </si>
-  <si>
-    <t>韩暹</t>
-  </si>
-  <si>
-    <t>韩遂</t>
-  </si>
-  <si>
-    <t>韩嵩</t>
-  </si>
-  <si>
-    <t>韩浩</t>
-  </si>
-  <si>
-    <t>韩馥</t>
-  </si>
-  <si>
-    <t>韩当</t>
-  </si>
-  <si>
-    <t>郭图</t>
-  </si>
-  <si>
-    <t>郭汜</t>
-  </si>
-  <si>
-    <t>管亥</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>关靖</t>
-  </si>
-  <si>
-    <t>龚都</t>
-  </si>
-  <si>
-    <t>公孙越</t>
-  </si>
-  <si>
-    <t>公孙范</t>
-  </si>
-  <si>
-    <t>公孙度</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>高升</t>
-  </si>
-  <si>
-    <t>高览</t>
-  </si>
-  <si>
-    <t>高干</t>
-  </si>
-  <si>
-    <t>甘宁</t>
-  </si>
-  <si>
-    <t>傅巽</t>
-  </si>
-  <si>
-    <t>逢纪</t>
-  </si>
-  <si>
-    <t>方悦</t>
-  </si>
-  <si>
-    <t>樊稠</t>
-  </si>
-  <si>
-    <t>董昭</t>
-  </si>
-  <si>
-    <t>董袭</t>
-  </si>
-  <si>
-    <t>董旻</t>
-  </si>
-  <si>
-    <t>董和</t>
-  </si>
-  <si>
-    <t>董承</t>
-  </si>
-  <si>
-    <t>丁原</t>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>邓茂</t>
-  </si>
-  <si>
-    <t>单经</t>
-  </si>
-  <si>
-    <t>崔琰</t>
-  </si>
-  <si>
-    <t>淳于琼</t>
-  </si>
-  <si>
-    <t>程远志</t>
-  </si>
-  <si>
-    <t>程昱</t>
-  </si>
-  <si>
-    <t>程银</t>
-  </si>
-  <si>
-    <t>程普</t>
-  </si>
-  <si>
-    <t>成宜</t>
-  </si>
-  <si>
-    <t>陈群</t>
-  </si>
-  <si>
-    <t>陈琳</t>
-  </si>
-  <si>
-    <t>陈兰</t>
-  </si>
-  <si>
-    <t>陈纪</t>
-  </si>
-  <si>
-    <t>陈横</t>
-  </si>
-  <si>
-    <t>陈珪</t>
-  </si>
-  <si>
-    <t>陈宫</t>
-  </si>
-  <si>
-    <t>陈登</t>
-  </si>
-  <si>
-    <t>车胄</t>
-  </si>
-  <si>
-    <t>曹性</t>
-  </si>
-  <si>
-    <t>曹仁</t>
-  </si>
-  <si>
-    <t>曹洪</t>
-  </si>
-  <si>
-    <t>曹豹</t>
-  </si>
-  <si>
-    <t>蔡中</t>
-  </si>
-  <si>
-    <t>蔡瑁</t>
-  </si>
-  <si>
-    <t>蔡和</t>
-  </si>
-  <si>
-    <t>卞喜</t>
-  </si>
-  <si>
-    <t>鲍信</t>
-  </si>
-  <si>
-    <t>刘焉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陶谦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公孙瓒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>马腾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>董卓</t>
-  </si>
-  <si>
-    <t>何进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孙坚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘备</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personState</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personCityID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personLoyal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personTrick</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personPolitics</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personMilitary</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personCommand</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personBirthYear</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>personID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁绍军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁术军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>孔融军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘表军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄祖军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张燕军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>边让军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴景军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>盛宪军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐瑁军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张超军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆康军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘度军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>丁原军</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>边让</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴景</t>
-  </si>
-  <si>
-    <t>盛宪</t>
-  </si>
-  <si>
-    <t>唐瑁</t>
   </si>
   <si>
     <t>孔柚</t>
@@ -1159,6 +1148,14 @@
   </si>
   <si>
     <t>1,7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩迅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>穆英</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1537,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3FCDBE-1DB0-4092-8A91-C497901EAC8C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1660,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C11">
         <v>181</v>
@@ -1674,7 +1671,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C12">
         <v>182</v>
@@ -1685,7 +1682,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C13">
         <v>88</v>
@@ -1696,7 +1693,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C14">
         <v>101</v>
@@ -1707,7 +1704,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -1718,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C16">
         <v>199</v>
@@ -1729,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C17">
         <v>38</v>
@@ -1740,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -1751,7 +1748,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C19">
         <v>216</v>
@@ -1762,7 +1759,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C20">
         <v>217</v>
@@ -1773,7 +1770,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C21">
         <v>218</v>
@@ -1784,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C22">
         <v>219</v>
@@ -1795,7 +1792,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C23">
         <v>220</v>
@@ -1806,7 +1803,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C24">
         <v>104</v>
@@ -1817,7 +1814,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C25">
         <v>89</v>
@@ -1834,8 +1831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692046E0-E24C-4C71-B904-CF26012D2B8D}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1887,10 +1884,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>100</v>
@@ -1913,16 +1910,19 @@
       <c r="I2">
         <v>60</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
       <c r="K2" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>100</v>
@@ -1945,16 +1945,19 @@
       <c r="I3">
         <v>60</v>
       </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
       <c r="K3" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1977,16 +1980,19 @@
       <c r="I4">
         <v>60</v>
       </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
       <c r="K4" s="4" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -2009,16 +2015,19 @@
       <c r="I5">
         <v>60</v>
       </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
       <c r="K5" s="4" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>100</v>
@@ -2041,16 +2050,19 @@
       <c r="I6">
         <v>60</v>
       </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
       <c r="K6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>100</v>
@@ -2073,16 +2085,19 @@
       <c r="I7">
         <v>60</v>
       </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -2105,16 +2120,19 @@
       <c r="I8">
         <v>60</v>
       </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -2137,16 +2155,19 @@
       <c r="I9">
         <v>60</v>
       </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
       <c r="K9" s="4" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -2169,16 +2190,19 @@
       <c r="I10">
         <v>60</v>
       </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
       <c r="K10" s="4" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -2201,16 +2225,19 @@
       <c r="I11">
         <v>60</v>
       </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
       <c r="K11" s="4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>100</v>
@@ -2233,16 +2260,19 @@
       <c r="I12">
         <v>60</v>
       </c>
+      <c r="J12">
+        <v>6</v>
+      </c>
       <c r="K12" s="4" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -2265,16 +2295,19 @@
       <c r="I13">
         <v>60</v>
       </c>
+      <c r="J13">
+        <v>7</v>
+      </c>
       <c r="K13" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
       <c r="C14">
         <v>100</v>
@@ -2297,16 +2330,19 @@
       <c r="I14">
         <v>60</v>
       </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>100</v>
@@ -2329,16 +2365,19 @@
       <c r="I15">
         <v>60</v>
       </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>100</v>
@@ -2361,16 +2400,19 @@
       <c r="I16">
         <v>60</v>
       </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>100</v>
@@ -2393,16 +2435,19 @@
       <c r="I17">
         <v>60</v>
       </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>100</v>
@@ -2425,8 +2470,11 @@
       <c r="I18">
         <v>60</v>
       </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
       <c r="K18" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2457,8 +2505,11 @@
       <c r="I19">
         <v>60</v>
       </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
       <c r="K19" s="4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2489,16 +2540,19 @@
       <c r="I20">
         <v>60</v>
       </c>
+      <c r="J20">
+        <v>9</v>
+      </c>
       <c r="K20" s="4" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <v>100</v>
@@ -2521,16 +2575,19 @@
       <c r="I21">
         <v>60</v>
       </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
       <c r="K21" s="4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -2553,16 +2610,19 @@
       <c r="I22">
         <v>60</v>
       </c>
+      <c r="J22">
+        <v>11</v>
+      </c>
       <c r="K22" s="4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C23">
         <v>100</v>
@@ -2585,16 +2645,19 @@
       <c r="I23">
         <v>60</v>
       </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
       <c r="K23" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C24">
         <v>100</v>
@@ -2617,16 +2680,19 @@
       <c r="I24">
         <v>60</v>
       </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
       <c r="K24" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>100</v>
@@ -2649,16 +2715,19 @@
       <c r="I25">
         <v>60</v>
       </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
       <c r="K25" s="4" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>100</v>
@@ -2681,16 +2750,19 @@
       <c r="I26">
         <v>60</v>
       </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
       <c r="K26" s="4" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>100</v>
@@ -2713,16 +2785,19 @@
       <c r="I27">
         <v>60</v>
       </c>
+      <c r="J27">
+        <v>15</v>
+      </c>
       <c r="K27" s="4" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <v>100</v>
@@ -2745,16 +2820,19 @@
       <c r="I28">
         <v>60</v>
       </c>
+      <c r="J28">
+        <v>16</v>
+      </c>
       <c r="K28" s="4" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C29">
         <v>100</v>
@@ -2777,16 +2855,19 @@
       <c r="I29">
         <v>60</v>
       </c>
+      <c r="J29">
+        <v>17</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>100</v>
@@ -2809,16 +2890,19 @@
       <c r="I30">
         <v>60</v>
       </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
       <c r="K30" s="4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>100</v>
@@ -2841,16 +2925,19 @@
       <c r="I31">
         <v>60</v>
       </c>
+      <c r="J31">
+        <v>19</v>
+      </c>
       <c r="K31" s="4" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C32">
         <v>100</v>
@@ -2873,16 +2960,19 @@
       <c r="I32">
         <v>60</v>
       </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
       <c r="K32" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>100</v>
@@ -2905,16 +2995,19 @@
       <c r="I33">
         <v>60</v>
       </c>
+      <c r="J33">
+        <v>21</v>
+      </c>
       <c r="K33" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>100</v>
@@ -2937,16 +3030,19 @@
       <c r="I34">
         <v>60</v>
       </c>
+      <c r="J34">
+        <v>22</v>
+      </c>
       <c r="K34">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C35">
         <v>100</v>
@@ -2969,16 +3065,19 @@
       <c r="I35">
         <v>60</v>
       </c>
+      <c r="J35">
+        <v>23</v>
+      </c>
       <c r="K35">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36">
         <v>100</v>
@@ -3000,6 +3099,9 @@
       </c>
       <c r="I36">
         <v>60</v>
+      </c>
+      <c r="J36">
+        <v>24</v>
       </c>
       <c r="K36">
         <v>32</v>
@@ -3008,7 +3110,7 @@
   </sheetData>
   <autoFilter ref="A1:J36" xr:uid="{9C7897BA-CC67-4DA8-98EC-9F3430E55169}">
     <sortState ref="A2:J36">
-      <sortCondition ref="A1:A36"/>
+      <sortCondition ref="J1:J36"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3019,10 +3121,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5109D5-EC72-404A-B13C-855F4594F600}">
-  <dimension ref="A1:K222"/>
+  <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="O213" sqref="O213"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I90" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3035,49 +3137,49 @@
     <col min="6" max="6" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="I1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="J1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -3097,18 +3199,19 @@
       <c r="H2" s="3">
         <v>10</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
       <c r="J2" s="3">
         <v>1</v>
       </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -3128,18 +3231,19 @@
       <c r="H3" s="3">
         <v>10</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>12</v>
+      </c>
       <c r="J3" s="3">
         <v>1</v>
       </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -3159,18 +3263,19 @@
       <c r="H4" s="3">
         <v>10</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>10</v>
+      </c>
       <c r="J4" s="3">
         <v>1</v>
       </c>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -3190,18 +3295,19 @@
       <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>27</v>
+      </c>
       <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -3221,49 +3327,51 @@
       <c r="H6" s="3">
         <v>10</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>33</v>
+      </c>
       <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="C7">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="D7" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>8</v>
       </c>
       <c r="F7" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3">
         <v>10</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>8</v>
+      </c>
       <c r="J7" s="3">
-        <v>1</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -3283,18 +3391,19 @@
       <c r="H8" s="3">
         <v>10</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>6</v>
+      </c>
       <c r="J8" s="3">
         <v>1</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -3314,18 +3423,19 @@
       <c r="H9" s="3">
         <v>10</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>8</v>
+      </c>
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -3349,14 +3459,13 @@
       <c r="J10" s="3">
         <v>1</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -3380,14 +3489,13 @@
       <c r="J11" s="3">
         <v>1</v>
       </c>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -3411,14 +3519,13 @@
       <c r="J12" s="3">
         <v>1</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -3442,14 +3549,13 @@
       <c r="J13" s="3">
         <v>1</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -3473,14 +3579,13 @@
       <c r="J14" s="3">
         <v>1</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -3504,14 +3609,13 @@
       <c r="J15" s="3">
         <v>1</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -3535,14 +3639,13 @@
       <c r="J16" s="3">
         <v>1</v>
       </c>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -3566,14 +3669,13 @@
       <c r="J17" s="3">
         <v>1</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -3597,14 +3699,13 @@
       <c r="J18" s="3">
         <v>1</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -3628,14 +3729,13 @@
       <c r="J19" s="3">
         <v>1</v>
       </c>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -3659,14 +3759,13 @@
       <c r="J20" s="3">
         <v>1</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -3690,14 +3789,13 @@
       <c r="J21" s="3">
         <v>1</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -3721,14 +3819,13 @@
       <c r="J22" s="3">
         <v>1</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -3752,14 +3849,13 @@
       <c r="J23" s="3">
         <v>1</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -3783,14 +3879,13 @@
       <c r="J24" s="3">
         <v>1</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -3814,14 +3909,13 @@
       <c r="J25" s="3">
         <v>1</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -3845,14 +3939,13 @@
       <c r="J26" s="3">
         <v>1</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -3876,14 +3969,13 @@
       <c r="J27" s="3">
         <v>1</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -3907,14 +3999,13 @@
       <c r="J28" s="3">
         <v>1</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -3938,14 +4029,13 @@
       <c r="J29" s="3">
         <v>1</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -3969,14 +4059,13 @@
       <c r="J30" s="3">
         <v>1</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -4000,14 +4089,13 @@
       <c r="J31" s="3">
         <v>1</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -4031,14 +4119,13 @@
       <c r="J32" s="3">
         <v>1</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -4062,14 +4149,13 @@
       <c r="J33" s="3">
         <v>1</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -4093,14 +4179,13 @@
       <c r="J34" s="3">
         <v>1</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -4124,14 +4209,13 @@
       <c r="J35" s="3">
         <v>1</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -4155,14 +4239,13 @@
       <c r="J36" s="3">
         <v>1</v>
       </c>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -4186,14 +4269,13 @@
       <c r="J37" s="3">
         <v>1</v>
       </c>
-      <c r="K37" s="3"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -4217,14 +4299,13 @@
       <c r="J38" s="3">
         <v>1</v>
       </c>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -4244,18 +4325,19 @@
       <c r="H39" s="3">
         <v>7</v>
       </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3">
+        <v>23</v>
+      </c>
       <c r="J39" s="3">
         <v>1</v>
       </c>
-      <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -4279,14 +4361,13 @@
       <c r="J40" s="3">
         <v>1</v>
       </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -4310,14 +4391,13 @@
       <c r="J41" s="3">
         <v>1</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -4341,14 +4421,13 @@
       <c r="J42" s="3">
         <v>1</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -4372,14 +4451,13 @@
       <c r="J43" s="3">
         <v>1</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -4403,14 +4481,13 @@
       <c r="J44" s="3">
         <v>1</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -4434,14 +4511,13 @@
       <c r="J45" s="3">
         <v>1</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -4465,14 +4541,13 @@
       <c r="J46" s="3">
         <v>1</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -4496,14 +4571,13 @@
       <c r="J47" s="3">
         <v>1</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -4527,14 +4601,13 @@
       <c r="J48" s="3">
         <v>1</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -4558,14 +4631,13 @@
       <c r="J49" s="3">
         <v>1</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -4589,14 +4661,13 @@
       <c r="J50" s="3">
         <v>1</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4620,14 +4691,13 @@
       <c r="J51" s="3">
         <v>1</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -4651,14 +4721,13 @@
       <c r="J52" s="3">
         <v>1</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -4682,14 +4751,13 @@
       <c r="J53" s="3">
         <v>1</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -4713,14 +4781,13 @@
       <c r="J54" s="3">
         <v>1</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -4744,14 +4811,13 @@
       <c r="J55" s="3">
         <v>1</v>
       </c>
-      <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -4775,14 +4841,13 @@
       <c r="J56" s="3">
         <v>1</v>
       </c>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -4806,14 +4871,13 @@
       <c r="J57" s="3">
         <v>1</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -4837,14 +4901,13 @@
       <c r="J58" s="3">
         <v>1</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -4868,14 +4931,13 @@
       <c r="J59" s="3">
         <v>1</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -4899,14 +4961,13 @@
       <c r="J60" s="3">
         <v>1</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -4930,14 +4991,13 @@
       <c r="J61" s="3">
         <v>1</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -4961,14 +5021,13 @@
       <c r="J62" s="3">
         <v>1</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -4992,14 +5051,13 @@
       <c r="J63" s="3">
         <v>1</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -5023,14 +5081,13 @@
       <c r="J64" s="3">
         <v>1</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -5054,14 +5111,13 @@
       <c r="J65" s="3">
         <v>1</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -5085,23 +5141,22 @@
       <c r="J66" s="3">
         <v>1</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>332</v>
       </c>
       <c r="C67">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D67" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E67" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F67" s="2">
         <v>7</v>
@@ -5116,14 +5171,13 @@
       <c r="J67" s="3">
         <v>1</v>
       </c>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -5147,14 +5201,13 @@
       <c r="J68" s="3">
         <v>1</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -5178,14 +5231,13 @@
       <c r="J69" s="3">
         <v>1</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -5209,14 +5261,13 @@
       <c r="J70" s="3">
         <v>1</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -5240,14 +5291,13 @@
       <c r="J71" s="3">
         <v>1</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -5271,14 +5321,13 @@
       <c r="J72" s="3">
         <v>1</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -5302,14 +5351,13 @@
       <c r="J73" s="3">
         <v>1</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -5333,14 +5381,13 @@
       <c r="J74" s="3">
         <v>1</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -5364,14 +5411,13 @@
       <c r="J75" s="3">
         <v>1</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -5395,14 +5441,13 @@
       <c r="J76" s="3">
         <v>1</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -5426,14 +5471,13 @@
       <c r="J77" s="3">
         <v>1</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -5457,14 +5501,13 @@
       <c r="J78" s="3">
         <v>1</v>
       </c>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -5488,14 +5531,13 @@
       <c r="J79" s="3">
         <v>1</v>
       </c>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -5519,14 +5561,13 @@
       <c r="J80" s="3">
         <v>1</v>
       </c>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -5546,18 +5587,19 @@
       <c r="H81" s="3">
         <v>7</v>
       </c>
-      <c r="I81" s="3"/>
+      <c r="I81" s="3">
+        <v>26</v>
+      </c>
       <c r="J81" s="3">
         <v>1</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -5581,14 +5623,13 @@
       <c r="J82" s="3">
         <v>1</v>
       </c>
-      <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -5612,14 +5653,13 @@
       <c r="J83" s="3">
         <v>1</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -5643,14 +5683,13 @@
       <c r="J84" s="3">
         <v>1</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -5674,14 +5713,13 @@
       <c r="J85" s="3">
         <v>1</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -5705,14 +5743,13 @@
       <c r="J86" s="3">
         <v>1</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -5736,14 +5773,13 @@
       <c r="J87" s="3">
         <v>1</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -5767,14 +5803,13 @@
       <c r="J88" s="3">
         <v>1</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -5794,18 +5829,19 @@
       <c r="H89" s="3">
         <v>7</v>
       </c>
-      <c r="I89" s="3"/>
+      <c r="I89" s="3">
+        <v>1</v>
+      </c>
       <c r="J89" s="3">
         <v>1</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -5825,18 +5861,19 @@
       <c r="H90" s="3">
         <v>7</v>
       </c>
-      <c r="I90" s="3"/>
+      <c r="I90" s="3">
+        <v>14</v>
+      </c>
       <c r="J90" s="3">
         <v>1</v>
       </c>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -5860,14 +5897,13 @@
       <c r="J91" s="3">
         <v>1</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -5891,14 +5927,13 @@
       <c r="J92" s="3">
         <v>1</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -5922,14 +5957,13 @@
       <c r="J93" s="3">
         <v>1</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -5953,14 +5987,13 @@
       <c r="J94" s="3">
         <v>1</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -5984,14 +6017,13 @@
       <c r="J95" s="3">
         <v>1</v>
       </c>
-      <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -6015,14 +6047,13 @@
       <c r="J96" s="3">
         <v>1</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -6046,14 +6077,13 @@
       <c r="J97" s="3">
         <v>1</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -6077,14 +6107,13 @@
       <c r="J98" s="3">
         <v>1</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -6108,14 +6137,13 @@
       <c r="J99" s="3">
         <v>1</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -6139,14 +6167,13 @@
       <c r="J100" s="3">
         <v>1</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -6170,14 +6197,13 @@
       <c r="J101" s="3">
         <v>1</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6197,18 +6223,19 @@
       <c r="H102" s="3">
         <v>7</v>
       </c>
-      <c r="I102" s="3"/>
+      <c r="I102" s="3">
+        <v>31</v>
+      </c>
       <c r="J102" s="3">
         <v>1</v>
       </c>
-      <c r="K102" s="3"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -6232,14 +6259,13 @@
       <c r="J103" s="3">
         <v>1</v>
       </c>
-      <c r="K103" s="3"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -6263,14 +6289,13 @@
       <c r="J104" s="3">
         <v>1</v>
       </c>
-      <c r="K104" s="3"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -6290,18 +6315,19 @@
       <c r="H105" s="3">
         <v>7</v>
       </c>
-      <c r="I105" s="3"/>
+      <c r="I105" s="3">
+        <v>24</v>
+      </c>
       <c r="J105" s="3">
         <v>1</v>
       </c>
-      <c r="K105" s="3"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -6325,14 +6351,13 @@
       <c r="J106" s="3">
         <v>1</v>
       </c>
-      <c r="K106" s="3"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -6356,14 +6381,13 @@
       <c r="J107" s="3">
         <v>1</v>
       </c>
-      <c r="K107" s="3"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -6387,14 +6411,13 @@
       <c r="J108" s="3">
         <v>1</v>
       </c>
-      <c r="K108" s="3"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -6414,18 +6437,19 @@
       <c r="H109" s="3">
         <v>7</v>
       </c>
-      <c r="I109" s="3"/>
+      <c r="I109" s="3">
+        <v>21</v>
+      </c>
       <c r="J109" s="3">
         <v>1</v>
       </c>
-      <c r="K109" s="3"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -6449,14 +6473,13 @@
       <c r="J110" s="3">
         <v>1</v>
       </c>
-      <c r="K110" s="3"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -6480,14 +6503,13 @@
       <c r="J111" s="3">
         <v>1</v>
       </c>
-      <c r="K111" s="3"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -6511,14 +6533,13 @@
       <c r="J112" s="3">
         <v>1</v>
       </c>
-      <c r="K112" s="3"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -6542,14 +6563,13 @@
       <c r="J113" s="3">
         <v>1</v>
       </c>
-      <c r="K113" s="3"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -6573,14 +6593,13 @@
       <c r="J114" s="3">
         <v>1</v>
       </c>
-      <c r="K114" s="3"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -6604,14 +6623,13 @@
       <c r="J115" s="3">
         <v>1</v>
       </c>
-      <c r="K115" s="3"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -6635,14 +6653,13 @@
       <c r="J116" s="3">
         <v>1</v>
       </c>
-      <c r="K116" s="3"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -6666,14 +6683,13 @@
       <c r="J117" s="3">
         <v>1</v>
       </c>
-      <c r="K117" s="3"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -6697,14 +6713,13 @@
       <c r="J118" s="3">
         <v>1</v>
       </c>
-      <c r="K118" s="3"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -6728,14 +6743,13 @@
       <c r="J119" s="3">
         <v>1</v>
       </c>
-      <c r="K119" s="3"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -6759,14 +6773,13 @@
       <c r="J120" s="3">
         <v>1</v>
       </c>
-      <c r="K120" s="3"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -6790,14 +6803,13 @@
       <c r="J121" s="3">
         <v>1</v>
       </c>
-      <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -6821,14 +6833,13 @@
       <c r="J122" s="3">
         <v>1</v>
       </c>
-      <c r="K122" s="3"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -6852,14 +6863,13 @@
       <c r="J123" s="3">
         <v>1</v>
       </c>
-      <c r="K123" s="3"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -6883,14 +6893,13 @@
       <c r="J124" s="3">
         <v>1</v>
       </c>
-      <c r="K124" s="3"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -6914,14 +6923,13 @@
       <c r="J125" s="3">
         <v>1</v>
       </c>
-      <c r="K125" s="3"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -6945,14 +6953,13 @@
       <c r="J126" s="3">
         <v>1</v>
       </c>
-      <c r="K126" s="3"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -6976,14 +6983,13 @@
       <c r="J127" s="3">
         <v>1</v>
       </c>
-      <c r="K127" s="3"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -7007,14 +7013,13 @@
       <c r="J128" s="3">
         <v>1</v>
       </c>
-      <c r="K128" s="3"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -7038,14 +7043,13 @@
       <c r="J129" s="3">
         <v>1</v>
       </c>
-      <c r="K129" s="3"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -7069,14 +7073,13 @@
       <c r="J130" s="3">
         <v>1</v>
       </c>
-      <c r="K130" s="3"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -7100,14 +7103,13 @@
       <c r="J131" s="3">
         <v>1</v>
       </c>
-      <c r="K131" s="3"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -7131,14 +7133,13 @@
       <c r="J132" s="3">
         <v>1</v>
       </c>
-      <c r="K132" s="3"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -7162,14 +7163,13 @@
       <c r="J133" s="3">
         <v>1</v>
       </c>
-      <c r="K133" s="3"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -7193,14 +7193,13 @@
       <c r="J134" s="3">
         <v>1</v>
       </c>
-      <c r="K134" s="3"/>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -7224,14 +7223,13 @@
       <c r="J135" s="3">
         <v>1</v>
       </c>
-      <c r="K135" s="3"/>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -7255,14 +7253,13 @@
       <c r="J136" s="3">
         <v>1</v>
       </c>
-      <c r="K136" s="3"/>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -7286,14 +7283,13 @@
       <c r="J137" s="3">
         <v>1</v>
       </c>
-      <c r="K137" s="3"/>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -7317,14 +7313,13 @@
       <c r="J138" s="3">
         <v>1</v>
       </c>
-      <c r="K138" s="3"/>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -7348,14 +7343,13 @@
       <c r="J139" s="3">
         <v>1</v>
       </c>
-      <c r="K139" s="3"/>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -7379,14 +7373,13 @@
       <c r="J140" s="3">
         <v>1</v>
       </c>
-      <c r="K140" s="3"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -7410,14 +7403,13 @@
       <c r="J141" s="3">
         <v>1</v>
       </c>
-      <c r="K141" s="3"/>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -7441,14 +7433,13 @@
       <c r="J142" s="3">
         <v>1</v>
       </c>
-      <c r="K142" s="3"/>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -7472,14 +7463,13 @@
       <c r="J143" s="3">
         <v>1</v>
       </c>
-      <c r="K143" s="3"/>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -7503,14 +7493,13 @@
       <c r="J144" s="3">
         <v>1</v>
       </c>
-      <c r="K144" s="3"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -7534,14 +7523,13 @@
       <c r="J145" s="3">
         <v>1</v>
       </c>
-      <c r="K145" s="3"/>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -7565,14 +7553,13 @@
       <c r="J146" s="3">
         <v>1</v>
       </c>
-      <c r="K146" s="3"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -7596,14 +7583,13 @@
       <c r="J147" s="3">
         <v>1</v>
       </c>
-      <c r="K147" s="3"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -7627,14 +7613,13 @@
       <c r="J148" s="3">
         <v>1</v>
       </c>
-      <c r="K148" s="3"/>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -7658,14 +7643,13 @@
       <c r="J149" s="3">
         <v>1</v>
       </c>
-      <c r="K149" s="3"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -7689,14 +7673,13 @@
       <c r="J150" s="3">
         <v>1</v>
       </c>
-      <c r="K150" s="3"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -7720,14 +7703,13 @@
       <c r="J151" s="3">
         <v>1</v>
       </c>
-      <c r="K151" s="3"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -7751,14 +7733,13 @@
       <c r="J152" s="3">
         <v>1</v>
       </c>
-      <c r="K152" s="3"/>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -7782,14 +7763,13 @@
       <c r="J153" s="3">
         <v>1</v>
       </c>
-      <c r="K153" s="3"/>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -7813,14 +7793,13 @@
       <c r="J154" s="3">
         <v>1</v>
       </c>
-      <c r="K154" s="3"/>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -7844,14 +7823,13 @@
       <c r="J155" s="3">
         <v>1</v>
       </c>
-      <c r="K155" s="3"/>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -7875,14 +7853,13 @@
       <c r="J156" s="3">
         <v>1</v>
       </c>
-      <c r="K156" s="3"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -7906,14 +7883,13 @@
       <c r="J157" s="3">
         <v>1</v>
       </c>
-      <c r="K157" s="3"/>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -7937,14 +7913,13 @@
       <c r="J158" s="3">
         <v>1</v>
       </c>
-      <c r="K158" s="3"/>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -7968,14 +7943,13 @@
       <c r="J159" s="3">
         <v>1</v>
       </c>
-      <c r="K159" s="3"/>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -7999,14 +7973,13 @@
       <c r="J160" s="3">
         <v>1</v>
       </c>
-      <c r="K160" s="3"/>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -8030,14 +8003,13 @@
       <c r="J161" s="3">
         <v>1</v>
       </c>
-      <c r="K161" s="3"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -8061,14 +8033,13 @@
       <c r="J162" s="3">
         <v>1</v>
       </c>
-      <c r="K162" s="3"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -8092,14 +8063,13 @@
       <c r="J163" s="3">
         <v>1</v>
       </c>
-      <c r="K163" s="3"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C164">
         <v>157</v>
@@ -8123,14 +8093,13 @@
       <c r="J164" s="3">
         <v>1</v>
       </c>
-      <c r="K164" s="3"/>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C165">
         <v>142</v>
@@ -8154,14 +8123,13 @@
       <c r="J165" s="3">
         <v>1</v>
       </c>
-      <c r="K165" s="3"/>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C166">
         <v>163</v>
@@ -8185,14 +8153,13 @@
       <c r="J166" s="3">
         <v>1</v>
       </c>
-      <c r="K166" s="3"/>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C167">
         <v>145</v>
@@ -8216,14 +8183,13 @@
       <c r="J167" s="3">
         <v>1</v>
       </c>
-      <c r="K167" s="3"/>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C168">
         <v>153</v>
@@ -8247,14 +8213,13 @@
       <c r="J168" s="3">
         <v>1</v>
       </c>
-      <c r="K168" s="3"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C169">
         <v>151</v>
@@ -8278,14 +8243,13 @@
       <c r="J169" s="3">
         <v>1</v>
       </c>
-      <c r="K169" s="3"/>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C170">
         <v>163</v>
@@ -8309,14 +8273,13 @@
       <c r="J170" s="3">
         <v>1</v>
       </c>
-      <c r="K170" s="3"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C171">
         <v>168</v>
@@ -8340,14 +8303,13 @@
       <c r="J171" s="3">
         <v>1</v>
       </c>
-      <c r="K171" s="3"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C172">
         <v>158</v>
@@ -8371,14 +8333,13 @@
       <c r="J172" s="3">
         <v>1</v>
       </c>
-      <c r="K172" s="3"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C173">
         <v>160</v>
@@ -8402,14 +8363,13 @@
       <c r="J173" s="3">
         <v>1</v>
       </c>
-      <c r="K173" s="3"/>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C174">
         <v>159</v>
@@ -8433,14 +8393,13 @@
       <c r="J174" s="3">
         <v>1</v>
       </c>
-      <c r="K174" s="3"/>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C175">
         <v>153</v>
@@ -8464,14 +8423,13 @@
       <c r="J175" s="3">
         <v>1</v>
       </c>
-      <c r="K175" s="3"/>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C176">
         <v>152</v>
@@ -8495,14 +8453,13 @@
       <c r="J176" s="3">
         <v>1</v>
       </c>
-      <c r="K176" s="3"/>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C177">
         <v>167</v>
@@ -8526,14 +8483,13 @@
       <c r="J177" s="3">
         <v>1</v>
       </c>
-      <c r="K177" s="3"/>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C178">
         <v>162</v>
@@ -8557,14 +8513,13 @@
       <c r="J178" s="3">
         <v>1</v>
       </c>
-      <c r="K178" s="3"/>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C179">
         <v>159</v>
@@ -8588,14 +8543,13 @@
       <c r="J179" s="3">
         <v>1</v>
       </c>
-      <c r="K179" s="3"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C180">
         <v>158</v>
@@ -8619,14 +8573,13 @@
       <c r="J180" s="3">
         <v>1</v>
       </c>
-      <c r="K180" s="3"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C181">
         <v>164</v>
@@ -8650,14 +8603,13 @@
       <c r="J181" s="3">
         <v>1</v>
       </c>
-      <c r="K181" s="3"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C182">
         <v>154</v>
@@ -8677,18 +8629,19 @@
       <c r="H182" s="3">
         <v>7</v>
       </c>
-      <c r="I182" s="3"/>
+      <c r="I182" s="3">
+        <v>17</v>
+      </c>
       <c r="J182" s="3">
         <v>1</v>
       </c>
-      <c r="K182" s="3"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C183">
         <v>155</v>
@@ -8708,18 +8661,19 @@
       <c r="H183" s="3">
         <v>7</v>
       </c>
-      <c r="I183" s="3"/>
+      <c r="I183" s="3">
+        <v>25</v>
+      </c>
       <c r="J183" s="3">
         <v>1</v>
       </c>
-      <c r="K183" s="3"/>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C184">
         <v>150</v>
@@ -8739,18 +8693,19 @@
       <c r="H184" s="3">
         <v>7</v>
       </c>
-      <c r="I184" s="3"/>
+      <c r="I184" s="3">
+        <v>17</v>
+      </c>
       <c r="J184" s="3">
         <v>1</v>
       </c>
-      <c r="K184" s="3"/>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C185">
         <v>163</v>
@@ -8770,18 +8725,19 @@
       <c r="H185" s="3">
         <v>7</v>
       </c>
-      <c r="I185" s="3"/>
+      <c r="I185" s="3">
+        <v>17</v>
+      </c>
       <c r="J185" s="3">
         <v>1</v>
       </c>
-      <c r="K185" s="3"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C186">
         <v>165</v>
@@ -8805,14 +8761,13 @@
       <c r="J186" s="3">
         <v>1</v>
       </c>
-      <c r="K186" s="3"/>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C187">
         <v>161</v>
@@ -8836,14 +8791,13 @@
       <c r="J187" s="3">
         <v>1</v>
       </c>
-      <c r="K187" s="3"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C188">
         <v>148</v>
@@ -8863,18 +8817,19 @@
       <c r="H188" s="3">
         <v>7</v>
       </c>
-      <c r="I188" s="3"/>
+      <c r="I188" s="3">
+        <v>16</v>
+      </c>
       <c r="J188" s="3">
         <v>1</v>
       </c>
-      <c r="K188" s="3"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C189">
         <v>156</v>
@@ -8898,14 +8853,13 @@
       <c r="J189" s="3">
         <v>1</v>
       </c>
-      <c r="K189" s="3"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C190">
         <v>167</v>
@@ -8929,14 +8883,13 @@
       <c r="J190" s="3">
         <v>1</v>
       </c>
-      <c r="K190" s="3"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C191">
         <v>153</v>
@@ -8960,14 +8913,13 @@
       <c r="J191" s="3">
         <v>1</v>
       </c>
-      <c r="K191" s="3"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C192">
         <v>144</v>
@@ -8991,14 +8943,13 @@
       <c r="J192" s="3">
         <v>1</v>
       </c>
-      <c r="K192" s="3"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C193">
         <v>140</v>
@@ -9018,18 +8969,19 @@
       <c r="H193" s="3">
         <v>7</v>
       </c>
-      <c r="I193" s="3"/>
+      <c r="I193" s="3">
+        <v>16</v>
+      </c>
       <c r="J193" s="3">
         <v>1</v>
       </c>
-      <c r="K193" s="3"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C194">
         <v>153</v>
@@ -9049,18 +9001,19 @@
       <c r="H194" s="3">
         <v>7</v>
       </c>
-      <c r="I194" s="3"/>
+      <c r="I194" s="3">
+        <v>16</v>
+      </c>
       <c r="J194" s="3">
         <v>1</v>
       </c>
-      <c r="K194" s="3"/>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C195">
         <v>169</v>
@@ -9084,14 +9037,13 @@
       <c r="J195" s="3">
         <v>1</v>
       </c>
-      <c r="K195" s="3"/>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C196">
         <v>163</v>
@@ -9115,14 +9067,13 @@
       <c r="J196" s="3">
         <v>1</v>
       </c>
-      <c r="K196" s="3"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C197">
         <v>155</v>
@@ -9146,14 +9097,13 @@
       <c r="J197" s="3">
         <v>1</v>
       </c>
-      <c r="K197" s="3"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C198">
         <v>169</v>
@@ -9177,14 +9127,13 @@
       <c r="J198" s="3">
         <v>1</v>
       </c>
-      <c r="K198" s="3"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C199">
         <v>154</v>
@@ -9208,14 +9157,13 @@
       <c r="J199" s="3">
         <v>1</v>
       </c>
-      <c r="K199" s="3"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C200">
         <v>153</v>
@@ -9235,18 +9183,19 @@
       <c r="H200" s="3">
         <v>7</v>
       </c>
-      <c r="I200" s="3"/>
+      <c r="I200" s="3">
+        <v>22</v>
+      </c>
       <c r="J200" s="3">
         <v>1</v>
       </c>
-      <c r="K200" s="3"/>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C201">
         <v>151</v>
@@ -9270,14 +9219,13 @@
       <c r="J201" s="3">
         <v>1</v>
       </c>
-      <c r="K201" s="3"/>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C202">
         <v>154</v>
@@ -9301,14 +9249,13 @@
       <c r="J202" s="3">
         <v>1</v>
       </c>
-      <c r="K202" s="3"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C203">
         <v>163</v>
@@ -9332,14 +9279,13 @@
       <c r="J203" s="3">
         <v>1</v>
       </c>
-      <c r="K203" s="3"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C204">
         <v>156</v>
@@ -9363,14 +9309,13 @@
       <c r="J204" s="3">
         <v>1</v>
       </c>
-      <c r="K204" s="3"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C205">
         <v>168</v>
@@ -9394,14 +9339,13 @@
       <c r="J205" s="3">
         <v>1</v>
       </c>
-      <c r="K205" s="3"/>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C206">
         <v>156</v>
@@ -9425,14 +9369,13 @@
       <c r="J206" s="3">
         <v>1</v>
       </c>
-      <c r="K206" s="3"/>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C207">
         <v>168</v>
@@ -9456,14 +9399,13 @@
       <c r="J207" s="3">
         <v>1</v>
       </c>
-      <c r="K207" s="3"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C208">
         <v>151</v>
@@ -9487,14 +9429,13 @@
       <c r="J208" s="3">
         <v>1</v>
       </c>
-      <c r="K208" s="3"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C209">
         <v>164</v>
@@ -9518,14 +9459,13 @@
       <c r="J209" s="3">
         <v>1</v>
       </c>
-      <c r="K209" s="3"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C210">
         <v>159</v>
@@ -9549,14 +9489,13 @@
       <c r="J210" s="3">
         <v>1</v>
       </c>
-      <c r="K210" s="3"/>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C211">
         <v>149</v>
@@ -9580,14 +9519,13 @@
       <c r="J211" s="3">
         <v>1</v>
       </c>
-      <c r="K211" s="3"/>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C212">
         <v>156</v>
@@ -9611,14 +9549,13 @@
       <c r="J212" s="3">
         <v>1</v>
       </c>
-      <c r="K212" s="3"/>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C213">
         <v>148</v>
@@ -9642,14 +9579,13 @@
       <c r="J213" s="3">
         <v>1</v>
       </c>
-      <c r="K213" s="3"/>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C214">
         <v>144</v>
@@ -9673,14 +9609,13 @@
       <c r="J214" s="3">
         <v>1</v>
       </c>
-      <c r="K214" s="3"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C215">
         <v>155</v>
@@ -9704,14 +9639,13 @@
       <c r="J215" s="3">
         <v>1</v>
       </c>
-      <c r="K215" s="3"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C216">
         <v>140</v>
@@ -9731,17 +9665,19 @@
       <c r="H216" s="3">
         <v>10</v>
       </c>
-      <c r="I216" s="3"/>
+      <c r="I216" s="3">
+        <v>11</v>
+      </c>
       <c r="J216" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C217">
         <v>144</v>
@@ -9761,17 +9697,19 @@
       <c r="H217" s="3">
         <v>10</v>
       </c>
-      <c r="I217" s="3"/>
+      <c r="I217">
+        <v>4</v>
+      </c>
       <c r="J217" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C218">
         <v>147</v>
@@ -9791,17 +9729,19 @@
       <c r="H218" s="3">
         <v>10</v>
       </c>
-      <c r="I218" s="3"/>
+      <c r="I218">
+        <v>5</v>
+      </c>
       <c r="J218" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C219">
         <v>150</v>
@@ -9821,12 +9761,14 @@
       <c r="H219" s="3">
         <v>10</v>
       </c>
-      <c r="I219" s="3"/>
+      <c r="I219">
+        <v>3</v>
+      </c>
       <c r="J219" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -9834,7 +9776,7 @@
         <v>56</v>
       </c>
       <c r="C220">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D220" s="2">
         <v>6</v>
@@ -9851,20 +9793,22 @@
       <c r="H220" s="3">
         <v>10</v>
       </c>
-      <c r="I220" s="3"/>
+      <c r="I220" s="3">
+        <v>15</v>
+      </c>
       <c r="J220" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C221">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D221" s="2">
         <v>6</v>
@@ -9881,47 +9825,15 @@
       <c r="H221" s="3">
         <v>10</v>
       </c>
-      <c r="I221" s="3"/>
+      <c r="I221">
+        <v>32</v>
+      </c>
       <c r="J221" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>60</v>
-      </c>
-      <c r="C222">
-        <v>147</v>
-      </c>
-      <c r="D222" s="2">
-        <v>6</v>
-      </c>
-      <c r="E222" s="2">
-        <v>6</v>
-      </c>
-      <c r="F222" s="2">
-        <v>6</v>
-      </c>
-      <c r="G222" s="2">
-        <v>6</v>
-      </c>
-      <c r="H222" s="3">
-        <v>10</v>
-      </c>
-      <c r="I222" s="3"/>
-      <c r="J222" s="3">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K219" xr:uid="{129DA07B-54B9-4C6A-A407-38F42E19F26C}">
-    <sortState ref="A2:K216">
-      <sortCondition ref="A1:A216"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:J222" xr:uid="{129DA07B-54B9-4C6A-A407-38F42E19F26C}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/数据库设计/中原数据库/中原剧本.xlsx
+++ b/code/数据库设计/中原数据库/中原剧本.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA9132A-5C60-4012-96FD-264E93ADC2BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31940CC0-B907-4CDB-A8EC-BA5824803FB9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="midFaction" sheetId="3" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>荀攸</t>
   </si>
   <si>
-    <t>荀或</t>
-  </si>
-  <si>
     <t>许攸</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>李儒</t>
   </si>
   <si>
-    <t>李摧</t>
-  </si>
-  <si>
     <t>雷薄</t>
   </si>
   <si>
@@ -1156,6 +1150,14 @@
   </si>
   <si>
     <t>穆英</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荀彧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李催</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1535,7 +1537,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1660,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11">
         <v>181</v>
@@ -1671,7 +1673,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C12">
         <v>182</v>
@@ -1682,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C13">
         <v>88</v>
@@ -1693,7 +1695,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C14">
         <v>101</v>
@@ -1704,7 +1706,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -1715,7 +1717,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C16">
         <v>199</v>
@@ -1726,7 +1728,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17">
         <v>38</v>
@@ -1737,7 +1739,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C18">
         <v>215</v>
@@ -1748,7 +1750,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C19">
         <v>216</v>
@@ -1759,7 +1761,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C20">
         <v>217</v>
@@ -1770,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C21">
         <v>218</v>
@@ -1781,7 +1783,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C22">
         <v>219</v>
@@ -1792,7 +1794,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C23">
         <v>220</v>
@@ -1803,7 +1805,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24">
         <v>104</v>
@@ -1814,7 +1816,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C25">
         <v>89</v>
@@ -1831,8 +1833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692046E0-E24C-4C71-B904-CF26012D2B8D}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1914,7 +1916,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1949,7 +1951,7 @@
         <v>2</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,7 +1986,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2019,7 +2021,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2089,7 +2091,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2124,7 +2126,7 @@
         <v>4</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2159,7 +2161,7 @@
         <v>4</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2229,7 +2231,7 @@
         <v>5</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2264,7 +2266,7 @@
         <v>6</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2299,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2334,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2369,7 +2371,7 @@
         <v>9</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2404,7 +2406,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2439,7 +2441,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,7 +2476,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2509,7 +2511,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2544,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2579,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2614,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2649,7 +2651,7 @@
         <v>12</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -2684,7 +2686,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2719,7 +2721,7 @@
         <v>13</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2754,7 +2756,7 @@
         <v>14</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2789,7 +2791,7 @@
         <v>15</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2824,7 +2826,7 @@
         <v>16</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,7 +2896,7 @@
         <v>18</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2929,7 +2931,7 @@
         <v>19</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2964,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2999,7 +3001,7 @@
         <v>21</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3123,8 +3125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5109D5-EC72-404A-B13C-855F4594F600}">
   <dimension ref="A1:J221"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="L156" sqref="L156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3144,34 +3146,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3179,7 +3181,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2">
         <v>155</v>
@@ -3211,7 +3213,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C3">
         <v>161</v>
@@ -3243,7 +3245,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C4">
         <v>155</v>
@@ -3275,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C5">
         <v>135</v>
@@ -3307,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C6">
         <v>139</v>
@@ -3339,7 +3341,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C7">
         <v>139</v>
@@ -3371,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C8">
         <v>153</v>
@@ -3403,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C9">
         <v>132</v>
@@ -3435,7 +3437,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C10">
         <v>132</v>
@@ -3455,7 +3457,9 @@
       <c r="H10" s="3">
         <v>10</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>27</v>
+      </c>
       <c r="J10" s="3">
         <v>1</v>
       </c>
@@ -3465,7 +3469,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C11">
         <v>152</v>
@@ -3485,7 +3489,9 @@
       <c r="H11" s="3">
         <v>7</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C12">
         <v>169</v>
@@ -3515,7 +3521,9 @@
       <c r="H12" s="3">
         <v>7</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
       <c r="J12" s="3">
         <v>1</v>
       </c>
@@ -3525,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C13">
         <v>166</v>
@@ -3545,7 +3553,9 @@
       <c r="H13" s="3">
         <v>7</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>29</v>
+      </c>
       <c r="J13" s="3">
         <v>1</v>
       </c>
@@ -3555,7 +3565,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14">
         <v>155</v>
@@ -3575,7 +3585,9 @@
       <c r="H14" s="3">
         <v>7</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>31</v>
+      </c>
       <c r="J14" s="3">
         <v>1</v>
       </c>
@@ -3585,7 +3597,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C15">
         <v>168</v>
@@ -3605,7 +3617,9 @@
       <c r="H15" s="3">
         <v>7</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>31</v>
+      </c>
       <c r="J15" s="3">
         <v>1</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C16">
         <v>151</v>
@@ -3635,7 +3649,9 @@
       <c r="H16" s="3">
         <v>7</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>8</v>
+      </c>
       <c r="J16" s="3">
         <v>1</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C17">
         <v>169</v>
@@ -3665,7 +3681,9 @@
       <c r="H17" s="3">
         <v>7</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>20</v>
+      </c>
       <c r="J17" s="3">
         <v>1</v>
       </c>
@@ -3675,7 +3693,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C18">
         <v>168</v>
@@ -3695,7 +3713,9 @@
       <c r="H18" s="3">
         <v>7</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>20</v>
+      </c>
       <c r="J18" s="3">
         <v>1</v>
       </c>
@@ -3705,7 +3725,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C19">
         <v>163</v>
@@ -3725,7 +3745,9 @@
       <c r="H19" s="3">
         <v>7</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>8</v>
+      </c>
       <c r="J19" s="3">
         <v>1</v>
       </c>
@@ -3735,7 +3757,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C20">
         <v>164</v>
@@ -3755,7 +3777,9 @@
       <c r="H20" s="3">
         <v>7</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>30</v>
+      </c>
       <c r="J20" s="3">
         <v>1</v>
       </c>
@@ -3765,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C21">
         <v>169</v>
@@ -3785,7 +3809,9 @@
       <c r="H21" s="3">
         <v>7</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>1</v>
+      </c>
       <c r="J21" s="3">
         <v>1</v>
       </c>
@@ -3795,7 +3821,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C22">
         <v>154</v>
@@ -3815,9 +3841,11 @@
       <c r="H22" s="3">
         <v>7</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>1</v>
+      </c>
       <c r="J22" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -3825,7 +3853,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C23">
         <v>132</v>
@@ -3845,7 +3873,9 @@
       <c r="H23" s="3">
         <v>7</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>12</v>
+      </c>
       <c r="J23" s="3">
         <v>1</v>
       </c>
@@ -3855,7 +3885,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C24">
         <v>161</v>
@@ -3875,7 +3905,9 @@
       <c r="H24" s="3">
         <v>7</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>25</v>
+      </c>
       <c r="J24" s="3">
         <v>1</v>
       </c>
@@ -3885,7 +3917,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C25">
         <v>165</v>
@@ -3905,7 +3937,9 @@
       <c r="H25" s="3">
         <v>7</v>
       </c>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>25</v>
+      </c>
       <c r="J25" s="3">
         <v>1</v>
       </c>
@@ -3915,7 +3949,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C26">
         <v>157</v>
@@ -3935,7 +3969,9 @@
       <c r="H26" s="3">
         <v>7</v>
       </c>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3">
+        <v>12</v>
+      </c>
       <c r="J26" s="3">
         <v>1</v>
       </c>
@@ -3945,7 +3981,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C27">
         <v>160</v>
@@ -3965,7 +4001,9 @@
       <c r="H27" s="3">
         <v>7</v>
       </c>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3">
+        <v>17</v>
+      </c>
       <c r="J27" s="3">
         <v>1</v>
       </c>
@@ -3975,7 +4013,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C28">
         <v>167</v>
@@ -3995,9 +4033,11 @@
       <c r="H28" s="3">
         <v>7</v>
       </c>
-      <c r="I28" s="3"/>
+      <c r="I28" s="3">
+        <v>2</v>
+      </c>
       <c r="J28" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4005,7 +4045,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C29">
         <v>168</v>
@@ -4025,7 +4065,9 @@
       <c r="H29" s="3">
         <v>7</v>
       </c>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3">
+        <v>33</v>
+      </c>
       <c r="J29" s="3">
         <v>1</v>
       </c>
@@ -4035,7 +4077,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C30">
         <v>151</v>
@@ -4055,7 +4097,9 @@
       <c r="H30" s="3">
         <v>7</v>
       </c>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3">
+        <v>10</v>
+      </c>
       <c r="J30" s="3">
         <v>1</v>
       </c>
@@ -4065,7 +4109,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C31">
         <v>169</v>
@@ -4085,7 +4129,9 @@
       <c r="H31" s="3">
         <v>7</v>
       </c>
-      <c r="I31" s="3"/>
+      <c r="I31" s="3">
+        <v>30</v>
+      </c>
       <c r="J31" s="3">
         <v>1</v>
       </c>
@@ -4095,7 +4141,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C32">
         <v>141</v>
@@ -4115,7 +4161,9 @@
       <c r="H32" s="3">
         <v>7</v>
       </c>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
       <c r="J32" s="3">
         <v>1</v>
       </c>
@@ -4125,7 +4173,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C33">
         <v>145</v>
@@ -4145,7 +4193,9 @@
       <c r="H33" s="3">
         <v>7</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="3">
+        <v>16</v>
+      </c>
       <c r="J33" s="3">
         <v>1</v>
       </c>
@@ -4155,7 +4205,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C34">
         <v>146</v>
@@ -4175,7 +4225,9 @@
       <c r="H34" s="3">
         <v>7</v>
       </c>
-      <c r="I34" s="3"/>
+      <c r="I34" s="3">
+        <v>18</v>
+      </c>
       <c r="J34" s="3">
         <v>1</v>
       </c>
@@ -4185,7 +4237,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C35">
         <v>163</v>
@@ -4205,7 +4257,9 @@
       <c r="H35" s="3">
         <v>7</v>
       </c>
-      <c r="I35" s="3"/>
+      <c r="I35" s="3">
+        <v>1</v>
+      </c>
       <c r="J35" s="3">
         <v>1</v>
       </c>
@@ -4215,7 +4269,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C36">
         <v>156</v>
@@ -4235,7 +4289,9 @@
       <c r="H36" s="3">
         <v>7</v>
       </c>
-      <c r="I36" s="3"/>
+      <c r="I36" s="3">
+        <v>25</v>
+      </c>
       <c r="J36" s="3">
         <v>1</v>
       </c>
@@ -4245,7 +4301,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C37">
         <v>147</v>
@@ -4265,7 +4321,9 @@
       <c r="H37" s="3">
         <v>7</v>
       </c>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3">
+        <v>28</v>
+      </c>
       <c r="J37" s="3">
         <v>1</v>
       </c>
@@ -4275,7 +4333,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C38">
         <v>160</v>
@@ -4295,7 +4353,9 @@
       <c r="H38" s="3">
         <v>7</v>
       </c>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3">
+        <v>20</v>
+      </c>
       <c r="J38" s="3">
         <v>1</v>
       </c>
@@ -4305,7 +4365,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C39">
         <v>137</v>
@@ -4337,7 +4397,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C40">
         <v>154</v>
@@ -4357,7 +4417,9 @@
       <c r="H40" s="3">
         <v>7</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="3">
+        <v>33</v>
+      </c>
       <c r="J40" s="3">
         <v>1</v>
       </c>
@@ -4367,7 +4429,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C41">
         <v>168</v>
@@ -4387,7 +4449,9 @@
       <c r="H41" s="3">
         <v>7</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="3">
+        <v>30</v>
+      </c>
       <c r="J41" s="3">
         <v>1</v>
       </c>
@@ -4397,7 +4461,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C42">
         <v>149</v>
@@ -4417,7 +4481,9 @@
       <c r="H42" s="3">
         <v>7</v>
       </c>
-      <c r="I42" s="3"/>
+      <c r="I42" s="3">
+        <v>33</v>
+      </c>
       <c r="J42" s="3">
         <v>1</v>
       </c>
@@ -4427,7 +4493,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C43">
         <v>169</v>
@@ -4447,7 +4513,9 @@
       <c r="H43" s="3">
         <v>7</v>
       </c>
-      <c r="I43" s="3"/>
+      <c r="I43" s="3">
+        <v>30</v>
+      </c>
       <c r="J43" s="3">
         <v>1</v>
       </c>
@@ -4457,7 +4525,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C44">
         <v>156</v>
@@ -4477,7 +4545,9 @@
       <c r="H44" s="3">
         <v>7</v>
       </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="3">
+        <v>30</v>
+      </c>
       <c r="J44" s="3">
         <v>1</v>
       </c>
@@ -4487,7 +4557,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C45">
         <v>153</v>
@@ -4507,7 +4577,9 @@
       <c r="H45" s="3">
         <v>7</v>
       </c>
-      <c r="I45" s="3"/>
+      <c r="I45" s="3">
+        <v>13</v>
+      </c>
       <c r="J45" s="3">
         <v>1</v>
       </c>
@@ -4517,7 +4589,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46">
         <v>153</v>
@@ -4537,7 +4609,9 @@
       <c r="H46" s="3">
         <v>7</v>
       </c>
-      <c r="I46" s="3"/>
+      <c r="I46" s="3">
+        <v>1</v>
+      </c>
       <c r="J46" s="3">
         <v>1</v>
       </c>
@@ -4547,7 +4621,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C47">
         <v>153</v>
@@ -4567,7 +4641,9 @@
       <c r="H47" s="3">
         <v>7</v>
       </c>
-      <c r="I47" s="3"/>
+      <c r="I47" s="3">
+        <v>1</v>
+      </c>
       <c r="J47" s="3">
         <v>1</v>
       </c>
@@ -4577,7 +4653,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C48">
         <v>162</v>
@@ -4597,7 +4673,9 @@
       <c r="H48" s="3">
         <v>7</v>
       </c>
-      <c r="I48" s="3"/>
+      <c r="I48" s="3">
+        <v>1</v>
+      </c>
       <c r="J48" s="3">
         <v>1</v>
       </c>
@@ -4607,7 +4685,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C49">
         <v>163</v>
@@ -4627,7 +4705,9 @@
       <c r="H49" s="3">
         <v>7</v>
       </c>
-      <c r="I49" s="3"/>
+      <c r="I49" s="3">
+        <v>26</v>
+      </c>
       <c r="J49" s="3">
         <v>1</v>
       </c>
@@ -4637,7 +4717,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C50">
         <v>168</v>
@@ -4657,7 +4737,9 @@
       <c r="H50" s="3">
         <v>7</v>
       </c>
-      <c r="I50" s="3"/>
+      <c r="I50" s="3">
+        <v>28</v>
+      </c>
       <c r="J50" s="3">
         <v>1</v>
       </c>
@@ -4667,7 +4749,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C51">
         <v>159</v>
@@ -4687,7 +4769,9 @@
       <c r="H51" s="3">
         <v>7</v>
       </c>
-      <c r="I51" s="3"/>
+      <c r="I51" s="3">
+        <v>33</v>
+      </c>
       <c r="J51" s="3">
         <v>1</v>
       </c>
@@ -4697,7 +4781,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C52">
         <v>145</v>
@@ -4717,7 +4801,9 @@
       <c r="H52" s="3">
         <v>7</v>
       </c>
-      <c r="I52" s="3"/>
+      <c r="I52" s="3">
+        <v>13</v>
+      </c>
       <c r="J52" s="3">
         <v>1</v>
       </c>
@@ -4727,7 +4813,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C53">
         <v>158</v>
@@ -4747,7 +4833,9 @@
       <c r="H53" s="3">
         <v>7</v>
       </c>
-      <c r="I53" s="3"/>
+      <c r="I53" s="3">
+        <v>33</v>
+      </c>
       <c r="J53" s="3">
         <v>1</v>
       </c>
@@ -4757,7 +4845,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C54">
         <v>155</v>
@@ -4777,7 +4865,9 @@
       <c r="H54" s="3">
         <v>7</v>
       </c>
-      <c r="I54" s="3"/>
+      <c r="I54" s="3">
+        <v>6</v>
+      </c>
       <c r="J54" s="3">
         <v>1</v>
       </c>
@@ -4787,7 +4877,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C55">
         <v>158</v>
@@ -4807,7 +4897,9 @@
       <c r="H55" s="3">
         <v>7</v>
       </c>
-      <c r="I55" s="3"/>
+      <c r="I55" s="3">
+        <v>6</v>
+      </c>
       <c r="J55" s="3">
         <v>1</v>
       </c>
@@ -4817,7 +4909,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C56">
         <v>160</v>
@@ -4837,7 +4929,9 @@
       <c r="H56" s="3">
         <v>7</v>
       </c>
-      <c r="I56" s="3"/>
+      <c r="I56" s="3">
+        <v>6</v>
+      </c>
       <c r="J56" s="3">
         <v>1</v>
       </c>
@@ -4847,7 +4941,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C57">
         <v>164</v>
@@ -4867,7 +4961,9 @@
       <c r="H57" s="3">
         <v>7</v>
       </c>
-      <c r="I57" s="3"/>
+      <c r="I57" s="3">
+        <v>13</v>
+      </c>
       <c r="J57" s="3">
         <v>1</v>
       </c>
@@ -4877,7 +4973,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C58">
         <v>158</v>
@@ -4897,7 +4993,9 @@
       <c r="H58" s="3">
         <v>7</v>
       </c>
-      <c r="I58" s="3"/>
+      <c r="I58" s="3">
+        <v>13</v>
+      </c>
       <c r="J58" s="3">
         <v>1</v>
       </c>
@@ -4907,7 +5005,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C59">
         <v>162</v>
@@ -4927,7 +5025,9 @@
       <c r="H59" s="3">
         <v>7</v>
       </c>
-      <c r="I59" s="3"/>
+      <c r="I59" s="3">
+        <v>12</v>
+      </c>
       <c r="J59" s="3">
         <v>1</v>
       </c>
@@ -4937,7 +5037,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C60">
         <v>160</v>
@@ -4957,7 +5057,9 @@
       <c r="H60" s="3">
         <v>7</v>
       </c>
-      <c r="I60" s="3"/>
+      <c r="I60" s="3">
+        <v>16</v>
+      </c>
       <c r="J60" s="3">
         <v>1</v>
       </c>
@@ -4967,7 +5069,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C61">
         <v>146</v>
@@ -4987,7 +5089,9 @@
       <c r="H61" s="3">
         <v>7</v>
       </c>
-      <c r="I61" s="3"/>
+      <c r="I61" s="3">
+        <v>30</v>
+      </c>
       <c r="J61" s="3">
         <v>1</v>
       </c>
@@ -4997,7 +5101,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C62">
         <v>155</v>
@@ -5017,7 +5121,9 @@
       <c r="H62" s="3">
         <v>7</v>
       </c>
-      <c r="I62" s="3"/>
+      <c r="I62" s="3">
+        <v>33</v>
+      </c>
       <c r="J62" s="3">
         <v>1</v>
       </c>
@@ -5027,7 +5133,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C63">
         <v>156</v>
@@ -5047,7 +5153,9 @@
       <c r="H63" s="3">
         <v>7</v>
       </c>
-      <c r="I63" s="3"/>
+      <c r="I63" s="3">
+        <v>10</v>
+      </c>
       <c r="J63" s="3">
         <v>1</v>
       </c>
@@ -5057,7 +5165,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C64">
         <v>149</v>
@@ -5077,7 +5185,9 @@
       <c r="H64" s="3">
         <v>7</v>
       </c>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3">
+        <v>10</v>
+      </c>
       <c r="J64" s="3">
         <v>1</v>
       </c>
@@ -5087,7 +5197,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C65">
         <v>164</v>
@@ -5107,7 +5217,9 @@
       <c r="H65" s="3">
         <v>7</v>
       </c>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3">
+        <v>28</v>
+      </c>
       <c r="J65" s="3">
         <v>1</v>
       </c>
@@ -5117,7 +5229,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C66">
         <v>154</v>
@@ -5137,7 +5249,9 @@
       <c r="H66" s="3">
         <v>7</v>
       </c>
-      <c r="I66" s="3"/>
+      <c r="I66" s="3">
+        <v>34</v>
+      </c>
       <c r="J66" s="3">
         <v>1</v>
       </c>
@@ -5147,7 +5261,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C67">
         <v>154</v>
@@ -5167,7 +5281,9 @@
       <c r="H67" s="3">
         <v>7</v>
       </c>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3">
+        <v>35</v>
+      </c>
       <c r="J67" s="3">
         <v>1</v>
       </c>
@@ -5177,7 +5293,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C68">
         <v>159</v>
@@ -5197,7 +5313,9 @@
       <c r="H68" s="3">
         <v>7</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3">
+        <v>34</v>
+      </c>
       <c r="J68" s="3">
         <v>1</v>
       </c>
@@ -5207,7 +5325,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C69">
         <v>163</v>
@@ -5227,7 +5345,9 @@
       <c r="H69" s="3">
         <v>7</v>
       </c>
-      <c r="I69" s="3"/>
+      <c r="I69" s="3">
+        <v>2</v>
+      </c>
       <c r="J69" s="3">
         <v>1</v>
       </c>
@@ -5237,7 +5357,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C70">
         <v>155</v>
@@ -5257,7 +5377,9 @@
       <c r="H70" s="3">
         <v>7</v>
       </c>
-      <c r="I70" s="3"/>
+      <c r="I70" s="3">
+        <v>35</v>
+      </c>
       <c r="J70" s="3">
         <v>1</v>
       </c>
@@ -5267,7 +5389,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C71">
         <v>156</v>
@@ -5287,7 +5409,9 @@
       <c r="H71" s="3">
         <v>7</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3">
+        <v>34</v>
+      </c>
       <c r="J71" s="3">
         <v>1</v>
       </c>
@@ -5297,7 +5421,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C72">
         <v>161</v>
@@ -5317,7 +5441,9 @@
       <c r="H72" s="3">
         <v>7</v>
       </c>
-      <c r="I72" s="3"/>
+      <c r="I72" s="3">
+        <v>18</v>
+      </c>
       <c r="J72" s="3">
         <v>1</v>
       </c>
@@ -5327,7 +5453,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C73">
         <v>158</v>
@@ -5347,7 +5473,9 @@
       <c r="H73" s="3">
         <v>7</v>
       </c>
-      <c r="I73" s="3"/>
+      <c r="I73" s="3">
+        <v>9</v>
+      </c>
       <c r="J73" s="3">
         <v>1</v>
       </c>
@@ -5357,7 +5485,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C74">
         <v>146</v>
@@ -5377,7 +5505,9 @@
       <c r="H74" s="3">
         <v>7</v>
       </c>
-      <c r="I74" s="3"/>
+      <c r="I74" s="3">
+        <v>30</v>
+      </c>
       <c r="J74" s="3">
         <v>1</v>
       </c>
@@ -5387,7 +5517,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C75">
         <v>157</v>
@@ -5407,7 +5537,9 @@
       <c r="H75" s="3">
         <v>7</v>
       </c>
-      <c r="I75" s="3"/>
+      <c r="I75" s="3">
+        <v>2</v>
+      </c>
       <c r="J75" s="3">
         <v>1</v>
       </c>
@@ -5417,7 +5549,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C76">
         <v>155</v>
@@ -5437,7 +5569,9 @@
       <c r="H76" s="3">
         <v>7</v>
       </c>
-      <c r="I76" s="3"/>
+      <c r="I76" s="3">
+        <v>33</v>
+      </c>
       <c r="J76" s="3">
         <v>1</v>
       </c>
@@ -5447,7 +5581,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C77">
         <v>132</v>
@@ -5467,7 +5601,9 @@
       <c r="H77" s="3">
         <v>7</v>
       </c>
-      <c r="I77" s="3"/>
+      <c r="I77" s="3">
+        <v>2</v>
+      </c>
       <c r="J77" s="3">
         <v>1</v>
       </c>
@@ -5477,7 +5613,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C78">
         <v>154</v>
@@ -5497,7 +5633,9 @@
       <c r="H78" s="3">
         <v>7</v>
       </c>
-      <c r="I78" s="3"/>
+      <c r="I78" s="3">
+        <v>10</v>
+      </c>
       <c r="J78" s="3">
         <v>1</v>
       </c>
@@ -5507,7 +5645,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C79">
         <v>167</v>
@@ -5527,7 +5665,9 @@
       <c r="H79" s="3">
         <v>7</v>
       </c>
-      <c r="I79" s="3"/>
+      <c r="I79" s="3">
+        <v>26</v>
+      </c>
       <c r="J79" s="3">
         <v>1</v>
       </c>
@@ -5537,7 +5677,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C80">
         <v>148</v>
@@ -5557,7 +5697,9 @@
       <c r="H80" s="3">
         <v>7</v>
       </c>
-      <c r="I80" s="3"/>
+      <c r="I80" s="3">
+        <v>31</v>
+      </c>
       <c r="J80" s="3">
         <v>1</v>
       </c>
@@ -5567,7 +5709,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C81">
         <v>148</v>
@@ -5599,7 +5741,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C82">
         <v>155</v>
@@ -5619,7 +5761,9 @@
       <c r="H82" s="3">
         <v>7</v>
       </c>
-      <c r="I82" s="3"/>
+      <c r="I82" s="3">
+        <v>25</v>
+      </c>
       <c r="J82" s="3">
         <v>1</v>
       </c>
@@ -5629,7 +5773,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C83">
         <v>147</v>
@@ -5649,7 +5793,9 @@
       <c r="H83" s="3">
         <v>7</v>
       </c>
-      <c r="I83" s="3"/>
+      <c r="I83" s="3">
+        <v>33</v>
+      </c>
       <c r="J83" s="3">
         <v>1</v>
       </c>
@@ -5659,7 +5805,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C84">
         <v>167</v>
@@ -5679,7 +5825,9 @@
       <c r="H84" s="3">
         <v>7</v>
       </c>
-      <c r="I84" s="3"/>
+      <c r="I84" s="3">
+        <v>12</v>
+      </c>
       <c r="J84" s="3">
         <v>1</v>
       </c>
@@ -5689,7 +5837,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C85">
         <v>168</v>
@@ -5709,7 +5857,9 @@
       <c r="H85" s="3">
         <v>7</v>
       </c>
-      <c r="I85" s="3"/>
+      <c r="I85" s="3">
+        <v>8</v>
+      </c>
       <c r="J85" s="3">
         <v>1</v>
       </c>
@@ -5719,7 +5869,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C86">
         <v>159</v>
@@ -5739,7 +5889,9 @@
       <c r="H86" s="3">
         <v>7</v>
       </c>
-      <c r="I86" s="3"/>
+      <c r="I86" s="3">
+        <v>16</v>
+      </c>
       <c r="J86" s="3">
         <v>1</v>
       </c>
@@ -5749,7 +5901,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C87">
         <v>155</v>
@@ -5769,7 +5921,9 @@
       <c r="H87" s="3">
         <v>7</v>
       </c>
-      <c r="I87" s="3"/>
+      <c r="I87" s="3">
+        <v>9</v>
+      </c>
       <c r="J87" s="3">
         <v>1</v>
       </c>
@@ -5779,7 +5933,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C88">
         <v>156</v>
@@ -5799,7 +5953,9 @@
       <c r="H88" s="3">
         <v>7</v>
       </c>
-      <c r="I88" s="3"/>
+      <c r="I88" s="3">
+        <v>20</v>
+      </c>
       <c r="J88" s="3">
         <v>1</v>
       </c>
@@ -5809,7 +5965,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89">
         <v>153</v>
@@ -5841,7 +5997,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C90">
         <v>151</v>
@@ -5873,7 +6029,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C91">
         <v>155</v>
@@ -5893,7 +6049,9 @@
       <c r="H91" s="3">
         <v>7</v>
       </c>
-      <c r="I91" s="3"/>
+      <c r="I91" s="3">
+        <v>29</v>
+      </c>
       <c r="J91" s="3">
         <v>1</v>
       </c>
@@ -5903,7 +6061,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C92">
         <v>157</v>
@@ -5923,7 +6081,9 @@
       <c r="H92" s="3">
         <v>7</v>
       </c>
-      <c r="I92" s="3"/>
+      <c r="I92" s="3">
+        <v>29</v>
+      </c>
       <c r="J92" s="3">
         <v>1</v>
       </c>
@@ -5933,7 +6093,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C93">
         <v>159</v>
@@ -5953,7 +6113,9 @@
       <c r="H93" s="3">
         <v>7</v>
       </c>
-      <c r="I93" s="3"/>
+      <c r="I93" s="3">
+        <v>20</v>
+      </c>
       <c r="J93" s="3">
         <v>1</v>
       </c>
@@ -5963,7 +6125,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C94">
         <v>163</v>
@@ -5983,7 +6145,9 @@
       <c r="H94" s="3">
         <v>7</v>
       </c>
-      <c r="I94" s="3"/>
+      <c r="I94" s="3">
+        <v>20</v>
+      </c>
       <c r="J94" s="3">
         <v>1</v>
       </c>
@@ -5993,7 +6157,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C95">
         <v>160</v>
@@ -6013,7 +6177,9 @@
       <c r="H95" s="3">
         <v>7</v>
       </c>
-      <c r="I95" s="3"/>
+      <c r="I95" s="3">
+        <v>8</v>
+      </c>
       <c r="J95" s="3">
         <v>1</v>
       </c>
@@ -6023,7 +6189,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>179</v>
+        <v>333</v>
       </c>
       <c r="C96">
         <v>148</v>
@@ -6043,7 +6209,9 @@
       <c r="H96" s="3">
         <v>7</v>
       </c>
-      <c r="I96" s="3"/>
+      <c r="I96" s="3">
+        <v>33</v>
+      </c>
       <c r="J96" s="3">
         <v>1</v>
       </c>
@@ -6053,7 +6221,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C97">
         <v>150</v>
@@ -6073,7 +6241,9 @@
       <c r="H97" s="3">
         <v>7</v>
       </c>
-      <c r="I97" s="3"/>
+      <c r="I97" s="3">
+        <v>30</v>
+      </c>
       <c r="J97" s="3">
         <v>1</v>
       </c>
@@ -6083,7 +6253,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98">
         <v>156</v>
@@ -6103,7 +6273,9 @@
       <c r="H98" s="3">
         <v>7</v>
       </c>
-      <c r="I98" s="3"/>
+      <c r="I98" s="3">
+        <v>30</v>
+      </c>
       <c r="J98" s="3">
         <v>1</v>
       </c>
@@ -6113,7 +6285,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C99">
         <v>168</v>
@@ -6133,9 +6305,11 @@
       <c r="H99" s="3">
         <v>7</v>
       </c>
-      <c r="I99" s="3"/>
+      <c r="I99" s="3">
+        <v>3</v>
+      </c>
       <c r="J99" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -6143,7 +6317,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C100">
         <v>169</v>
@@ -6163,7 +6337,9 @@
       <c r="H100" s="3">
         <v>7</v>
       </c>
-      <c r="I100" s="3"/>
+      <c r="I100" s="3">
+        <v>2</v>
+      </c>
       <c r="J100" s="3">
         <v>1</v>
       </c>
@@ -6173,7 +6349,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C101">
         <v>165</v>
@@ -6193,7 +6369,9 @@
       <c r="H101" s="3">
         <v>7</v>
       </c>
-      <c r="I101" s="3"/>
+      <c r="I101" s="3">
+        <v>25</v>
+      </c>
       <c r="J101" s="3">
         <v>1</v>
       </c>
@@ -6203,7 +6381,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102">
         <v>142</v>
@@ -6235,7 +6413,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C103">
         <v>147</v>
@@ -6255,7 +6433,9 @@
       <c r="H103" s="3">
         <v>7</v>
       </c>
-      <c r="I103" s="3"/>
+      <c r="I103" s="3">
+        <v>21</v>
+      </c>
       <c r="J103" s="3">
         <v>1</v>
       </c>
@@ -6265,7 +6445,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C104">
         <v>163</v>
@@ -6285,7 +6465,9 @@
       <c r="H104" s="3">
         <v>7</v>
       </c>
-      <c r="I104" s="3"/>
+      <c r="I104" s="3">
+        <v>31</v>
+      </c>
       <c r="J104" s="3">
         <v>1</v>
       </c>
@@ -6295,7 +6477,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C105">
         <v>168</v>
@@ -6327,7 +6509,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C106">
         <v>165</v>
@@ -6347,7 +6529,9 @@
       <c r="H106" s="3">
         <v>7</v>
       </c>
-      <c r="I106" s="3"/>
+      <c r="I106" s="3">
+        <v>8</v>
+      </c>
       <c r="J106" s="3">
         <v>1</v>
       </c>
@@ -6357,7 +6541,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107">
         <v>169</v>
@@ -6377,7 +6561,9 @@
       <c r="H107" s="3">
         <v>7</v>
       </c>
-      <c r="I107" s="3"/>
+      <c r="I107" s="3">
+        <v>8</v>
+      </c>
       <c r="J107" s="3">
         <v>1</v>
       </c>
@@ -6387,7 +6573,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108">
         <v>156</v>
@@ -6407,7 +6593,9 @@
       <c r="H108" s="3">
         <v>7</v>
       </c>
-      <c r="I108" s="3"/>
+      <c r="I108" s="3">
+        <v>21</v>
+      </c>
       <c r="J108" s="3">
         <v>1</v>
       </c>
@@ -6417,7 +6605,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C109">
         <v>145</v>
@@ -6449,7 +6637,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C110">
         <v>162</v>
@@ -6469,7 +6657,9 @@
       <c r="H110" s="3">
         <v>7</v>
       </c>
-      <c r="I110" s="3"/>
+      <c r="I110" s="3">
+        <v>27</v>
+      </c>
       <c r="J110" s="3">
         <v>1</v>
       </c>
@@ -6479,7 +6669,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C111">
         <v>139</v>
@@ -6499,7 +6689,9 @@
       <c r="H111" s="3">
         <v>7</v>
       </c>
-      <c r="I111" s="3"/>
+      <c r="I111" s="3">
+        <v>35</v>
+      </c>
       <c r="J111" s="3">
         <v>1</v>
       </c>
@@ -6509,7 +6701,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C112">
         <v>156</v>
@@ -6529,7 +6721,9 @@
       <c r="H112" s="3">
         <v>7</v>
       </c>
-      <c r="I112" s="3"/>
+      <c r="I112" s="3">
+        <v>23</v>
+      </c>
       <c r="J112" s="3">
         <v>1</v>
       </c>
@@ -6539,7 +6733,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C113">
         <v>161</v>
@@ -6559,7 +6753,9 @@
       <c r="H113" s="3">
         <v>7</v>
       </c>
-      <c r="I113" s="3"/>
+      <c r="I113" s="3">
+        <v>8</v>
+      </c>
       <c r="J113" s="3">
         <v>1</v>
       </c>
@@ -6569,7 +6765,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C114">
         <v>169</v>
@@ -6589,7 +6785,9 @@
       <c r="H114" s="3">
         <v>7</v>
       </c>
-      <c r="I114" s="3"/>
+      <c r="I114" s="3">
+        <v>23</v>
+      </c>
       <c r="J114" s="3">
         <v>1</v>
       </c>
@@ -6599,7 +6797,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C115">
         <v>162</v>
@@ -6619,9 +6817,11 @@
       <c r="H115" s="3">
         <v>7</v>
       </c>
-      <c r="I115" s="3"/>
+      <c r="I115" s="3">
+        <v>4</v>
+      </c>
       <c r="J115" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -6629,7 +6829,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C116">
         <v>169</v>
@@ -6649,7 +6849,9 @@
       <c r="H116" s="3">
         <v>7</v>
       </c>
-      <c r="I116" s="3"/>
+      <c r="I116" s="3">
+        <v>21</v>
+      </c>
       <c r="J116" s="3">
         <v>1</v>
       </c>
@@ -6659,7 +6861,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C117">
         <v>164</v>
@@ -6679,7 +6881,9 @@
       <c r="H117" s="3">
         <v>7</v>
       </c>
-      <c r="I117" s="3"/>
+      <c r="I117" s="3">
+        <v>8</v>
+      </c>
       <c r="J117" s="3">
         <v>1</v>
       </c>
@@ -6689,7 +6893,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C118">
         <v>161</v>
@@ -6709,7 +6913,9 @@
       <c r="H118" s="3">
         <v>7</v>
       </c>
-      <c r="I118" s="3"/>
+      <c r="I118" s="3">
+        <v>31</v>
+      </c>
       <c r="J118" s="3">
         <v>1</v>
       </c>
@@ -6719,7 +6925,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C119">
         <v>169</v>
@@ -6739,7 +6945,9 @@
       <c r="H119" s="3">
         <v>7</v>
       </c>
-      <c r="I119" s="3"/>
+      <c r="I119" s="3">
+        <v>12</v>
+      </c>
       <c r="J119" s="3">
         <v>1</v>
       </c>
@@ -6749,7 +6957,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120">
         <v>165</v>
@@ -6769,7 +6977,9 @@
       <c r="H120" s="3">
         <v>7</v>
       </c>
-      <c r="I120" s="3"/>
+      <c r="I120" s="3">
+        <v>12</v>
+      </c>
       <c r="J120" s="3">
         <v>1</v>
       </c>
@@ -6779,7 +6989,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C121">
         <v>162</v>
@@ -6799,7 +7009,9 @@
       <c r="H121" s="3">
         <v>7</v>
       </c>
-      <c r="I121" s="3"/>
+      <c r="I121" s="3">
+        <v>17</v>
+      </c>
       <c r="J121" s="3">
         <v>1</v>
       </c>
@@ -6809,7 +7021,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C122">
         <v>159</v>
@@ -6829,7 +7041,9 @@
       <c r="H122" s="3">
         <v>7</v>
       </c>
-      <c r="I122" s="3"/>
+      <c r="I122" s="3">
+        <v>17</v>
+      </c>
       <c r="J122" s="3">
         <v>1</v>
       </c>
@@ -6839,7 +7053,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C123">
         <v>163</v>
@@ -6859,7 +7073,9 @@
       <c r="H123" s="3">
         <v>7</v>
       </c>
-      <c r="I123" s="3"/>
+      <c r="I123" s="3">
+        <v>17</v>
+      </c>
       <c r="J123" s="3">
         <v>1</v>
       </c>
@@ -6869,7 +7085,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C124">
         <v>153</v>
@@ -6889,7 +7105,9 @@
       <c r="H124" s="3">
         <v>7</v>
       </c>
-      <c r="I124" s="3"/>
+      <c r="I124" s="3">
+        <v>21</v>
+      </c>
       <c r="J124" s="3">
         <v>1</v>
       </c>
@@ -6899,7 +7117,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C125">
         <v>169</v>
@@ -6919,7 +7137,9 @@
       <c r="H125" s="3">
         <v>7</v>
       </c>
-      <c r="I125" s="3"/>
+      <c r="I125" s="3">
+        <v>16</v>
+      </c>
       <c r="J125" s="3">
         <v>1</v>
       </c>
@@ -6929,7 +7149,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C126">
         <v>150</v>
@@ -6949,7 +7169,9 @@
       <c r="H126" s="3">
         <v>7</v>
       </c>
-      <c r="I126" s="3"/>
+      <c r="I126" s="3">
+        <v>10</v>
+      </c>
       <c r="J126" s="3">
         <v>1</v>
       </c>
@@ -6959,7 +7181,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C127">
         <v>146</v>
@@ -6979,7 +7201,9 @@
       <c r="H127" s="3">
         <v>7</v>
       </c>
-      <c r="I127" s="3"/>
+      <c r="I127" s="3">
+        <v>9</v>
+      </c>
       <c r="J127" s="3">
         <v>1</v>
       </c>
@@ -6989,7 +7213,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C128">
         <v>167</v>
@@ -7009,7 +7233,9 @@
       <c r="H128" s="3">
         <v>7</v>
       </c>
-      <c r="I128" s="3"/>
+      <c r="I128" s="3">
+        <v>16</v>
+      </c>
       <c r="J128" s="3">
         <v>1</v>
       </c>
@@ -7019,7 +7245,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C129">
         <v>156</v>
@@ -7039,7 +7265,9 @@
       <c r="H129" s="3">
         <v>7</v>
       </c>
-      <c r="I129" s="3"/>
+      <c r="I129" s="3">
+        <v>21</v>
+      </c>
       <c r="J129" s="3">
         <v>1</v>
       </c>
@@ -7049,7 +7277,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130">
         <v>157</v>
@@ -7069,7 +7297,9 @@
       <c r="H130" s="3">
         <v>7</v>
       </c>
-      <c r="I130" s="3"/>
+      <c r="I130" s="3">
+        <v>21</v>
+      </c>
       <c r="J130" s="3">
         <v>1</v>
       </c>
@@ -7079,7 +7309,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C131">
         <v>164</v>
@@ -7099,7 +7329,9 @@
       <c r="H131" s="3">
         <v>7</v>
       </c>
-      <c r="I131" s="3"/>
+      <c r="I131" s="3">
+        <v>21</v>
+      </c>
       <c r="J131" s="3">
         <v>1</v>
       </c>
@@ -7109,7 +7341,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C132">
         <v>156</v>
@@ -7129,7 +7361,9 @@
       <c r="H132" s="3">
         <v>7</v>
       </c>
-      <c r="I132" s="3"/>
+      <c r="I132" s="3">
+        <v>25</v>
+      </c>
       <c r="J132" s="3">
         <v>1</v>
       </c>
@@ -7139,7 +7373,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C133">
         <v>165</v>
@@ -7159,7 +7393,9 @@
       <c r="H133" s="3">
         <v>7</v>
       </c>
-      <c r="I133" s="3"/>
+      <c r="I133" s="3">
+        <v>12</v>
+      </c>
       <c r="J133" s="3">
         <v>1</v>
       </c>
@@ -7169,7 +7405,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C134">
         <v>157</v>
@@ -7189,9 +7425,11 @@
       <c r="H134" s="3">
         <v>7</v>
       </c>
-      <c r="I134" s="3"/>
+      <c r="I134" s="3">
+        <v>5</v>
+      </c>
       <c r="J134" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -7199,7 +7437,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C135">
         <v>166</v>
@@ -7219,7 +7457,9 @@
       <c r="H135" s="3">
         <v>7</v>
       </c>
-      <c r="I135" s="3"/>
+      <c r="I135" s="3">
+        <v>10</v>
+      </c>
       <c r="J135" s="3">
         <v>1</v>
       </c>
@@ -7229,7 +7469,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C136">
         <v>169</v>
@@ -7249,9 +7489,11 @@
       <c r="H136" s="3">
         <v>7</v>
       </c>
-      <c r="I136" s="3"/>
+      <c r="I136" s="3">
+        <v>6</v>
+      </c>
       <c r="J136" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -7259,7 +7501,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C137">
         <v>162</v>
@@ -7279,9 +7521,11 @@
       <c r="H137" s="3">
         <v>7</v>
       </c>
-      <c r="I137" s="3"/>
+      <c r="I137" s="3">
+        <v>7</v>
+      </c>
       <c r="J137" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -7289,7 +7533,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C138">
         <v>154</v>
@@ -7309,9 +7553,11 @@
       <c r="H138" s="3">
         <v>7</v>
       </c>
-      <c r="I138" s="3"/>
+      <c r="I138" s="3">
+        <v>8</v>
+      </c>
       <c r="J138" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -7319,7 +7565,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C139">
         <v>150</v>
@@ -7339,7 +7585,9 @@
       <c r="H139" s="3">
         <v>7</v>
       </c>
-      <c r="I139" s="3"/>
+      <c r="I139" s="3">
+        <v>1</v>
+      </c>
       <c r="J139" s="3">
         <v>1</v>
       </c>
@@ -7349,7 +7597,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C140">
         <v>162</v>
@@ -7369,7 +7617,9 @@
       <c r="H140" s="3">
         <v>7</v>
       </c>
-      <c r="I140" s="3"/>
+      <c r="I140" s="3">
+        <v>20</v>
+      </c>
       <c r="J140" s="3">
         <v>1</v>
       </c>
@@ -7379,7 +7629,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141">
         <v>162</v>
@@ -7399,7 +7649,9 @@
       <c r="H141" s="3">
         <v>7</v>
       </c>
-      <c r="I141" s="3"/>
+      <c r="I141" s="3">
+        <v>20</v>
+      </c>
       <c r="J141" s="3">
         <v>1</v>
       </c>
@@ -7409,7 +7661,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C142">
         <v>163</v>
@@ -7429,7 +7681,9 @@
       <c r="H142" s="3">
         <v>7</v>
       </c>
-      <c r="I142" s="3"/>
+      <c r="I142" s="3">
+        <v>20</v>
+      </c>
       <c r="J142" s="3">
         <v>1</v>
       </c>
@@ -7439,7 +7693,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143">
         <v>168</v>
@@ -7459,9 +7713,11 @@
       <c r="H143" s="3">
         <v>7</v>
       </c>
-      <c r="I143" s="3"/>
+      <c r="I143" s="3">
+        <v>9</v>
+      </c>
       <c r="J143" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -7469,7 +7725,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C144">
         <v>137</v>
@@ -7489,7 +7745,9 @@
       <c r="H144" s="3">
         <v>7</v>
       </c>
-      <c r="I144" s="3"/>
+      <c r="I144" s="3">
+        <v>27</v>
+      </c>
       <c r="J144" s="3">
         <v>1</v>
       </c>
@@ -7499,7 +7757,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C145">
         <v>152</v>
@@ -7519,9 +7777,11 @@
       <c r="H145" s="3">
         <v>7</v>
       </c>
-      <c r="I145" s="3"/>
+      <c r="I145" s="3">
+        <v>10</v>
+      </c>
       <c r="J145" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -7529,7 +7789,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C146">
         <v>156</v>
@@ -7549,7 +7809,9 @@
       <c r="H146" s="3">
         <v>7</v>
       </c>
-      <c r="I146" s="3"/>
+      <c r="I146" s="3">
+        <v>21</v>
+      </c>
       <c r="J146" s="3">
         <v>1</v>
       </c>
@@ -7559,7 +7821,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147">
         <v>151</v>
@@ -7579,9 +7841,11 @@
       <c r="H147" s="3">
         <v>7</v>
       </c>
-      <c r="I147" s="3"/>
+      <c r="I147" s="3">
+        <v>11</v>
+      </c>
       <c r="J147" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -7589,7 +7853,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C148">
         <v>161</v>
@@ -7609,7 +7873,9 @@
       <c r="H148" s="3">
         <v>7</v>
       </c>
-      <c r="I148" s="3"/>
+      <c r="I148" s="3">
+        <v>17</v>
+      </c>
       <c r="J148" s="3">
         <v>1</v>
       </c>
@@ -7619,7 +7885,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C149">
         <v>151</v>
@@ -7639,9 +7905,11 @@
       <c r="H149" s="3">
         <v>7</v>
       </c>
-      <c r="I149" s="3"/>
+      <c r="I149" s="3">
+        <v>12</v>
+      </c>
       <c r="J149" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
@@ -7649,7 +7917,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C150">
         <v>166</v>
@@ -7669,7 +7937,9 @@
       <c r="H150" s="3">
         <v>7</v>
       </c>
-      <c r="I150" s="3"/>
+      <c r="I150" s="3">
+        <v>10</v>
+      </c>
       <c r="J150" s="3">
         <v>1</v>
       </c>
@@ -7679,7 +7949,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C151">
         <v>163</v>
@@ -7699,7 +7969,9 @@
       <c r="H151" s="3">
         <v>7</v>
       </c>
-      <c r="I151" s="3"/>
+      <c r="I151" s="3">
+        <v>1</v>
+      </c>
       <c r="J151" s="3">
         <v>1</v>
       </c>
@@ -7709,7 +7981,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C152">
         <v>157</v>
@@ -7729,7 +8001,9 @@
       <c r="H152" s="3">
         <v>7</v>
       </c>
-      <c r="I152" s="3"/>
+      <c r="I152" s="3">
+        <v>1</v>
+      </c>
       <c r="J152" s="3">
         <v>1</v>
       </c>
@@ -7739,7 +8013,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C153">
         <v>157</v>
@@ -7759,7 +8033,9 @@
       <c r="H153" s="3">
         <v>7</v>
       </c>
-      <c r="I153" s="3"/>
+      <c r="I153" s="3">
+        <v>20</v>
+      </c>
       <c r="J153" s="3">
         <v>1</v>
       </c>
@@ -7769,7 +8045,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C154">
         <v>163</v>
@@ -7789,7 +8065,9 @@
       <c r="H154" s="3">
         <v>7</v>
       </c>
-      <c r="I154" s="3"/>
+      <c r="I154" s="3">
+        <v>20</v>
+      </c>
       <c r="J154" s="3">
         <v>1</v>
       </c>
@@ -7799,7 +8077,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C155">
         <v>167</v>
@@ -7819,7 +8097,9 @@
       <c r="H155" s="3">
         <v>7</v>
       </c>
-      <c r="I155" s="3"/>
+      <c r="I155" s="3">
+        <v>20</v>
+      </c>
       <c r="J155" s="3">
         <v>1</v>
       </c>
@@ -7829,7 +8109,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C156">
         <v>165</v>
@@ -7849,9 +8129,11 @@
       <c r="H156" s="3">
         <v>7</v>
       </c>
-      <c r="I156" s="3"/>
+      <c r="I156" s="3">
+        <v>13</v>
+      </c>
       <c r="J156" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -7859,7 +8141,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C157">
         <v>151</v>
@@ -7879,9 +8161,11 @@
       <c r="H157" s="3">
         <v>7</v>
       </c>
-      <c r="I157" s="3"/>
+      <c r="I157" s="3">
+        <v>14</v>
+      </c>
       <c r="J157" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -7889,7 +8173,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C158">
         <v>169</v>
@@ -7909,7 +8193,9 @@
       <c r="H158" s="3">
         <v>7</v>
       </c>
-      <c r="I158" s="3"/>
+      <c r="I158" s="3">
+        <v>20</v>
+      </c>
       <c r="J158" s="3">
         <v>1</v>
       </c>
@@ -7919,7 +8205,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C159">
         <v>147</v>
@@ -7939,9 +8225,11 @@
       <c r="H159" s="3">
         <v>7</v>
       </c>
-      <c r="I159" s="3"/>
+      <c r="I159" s="3">
+        <v>15</v>
+      </c>
       <c r="J159" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -7949,7 +8237,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C160">
         <v>155</v>
@@ -7969,7 +8257,9 @@
       <c r="H160" s="3">
         <v>7</v>
       </c>
-      <c r="I160" s="3"/>
+      <c r="I160" s="3">
+        <v>1</v>
+      </c>
       <c r="J160" s="3">
         <v>1</v>
       </c>
@@ -7979,7 +8269,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -7999,9 +8289,11 @@
       <c r="H161" s="3">
         <v>7</v>
       </c>
-      <c r="I161" s="3"/>
+      <c r="I161" s="3">
+        <v>16</v>
+      </c>
       <c r="J161" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -8009,7 +8301,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C162">
         <v>155</v>
@@ -8029,7 +8321,9 @@
       <c r="H162" s="3">
         <v>7</v>
       </c>
-      <c r="I162" s="3"/>
+      <c r="I162" s="3">
+        <v>17</v>
+      </c>
       <c r="J162" s="3">
         <v>1</v>
       </c>
@@ -8039,7 +8333,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>112</v>
+        <v>332</v>
       </c>
       <c r="C163">
         <v>163</v>
@@ -8059,7 +8353,9 @@
       <c r="H163" s="3">
         <v>7</v>
       </c>
-      <c r="I163" s="3"/>
+      <c r="I163" s="3">
+        <v>20</v>
+      </c>
       <c r="J163" s="3">
         <v>1</v>
       </c>
@@ -8089,7 +8385,9 @@
       <c r="H164" s="3">
         <v>7</v>
       </c>
-      <c r="I164" s="3"/>
+      <c r="I164" s="3">
+        <v>20</v>
+      </c>
       <c r="J164" s="3">
         <v>1</v>
       </c>
@@ -8119,9 +8417,11 @@
       <c r="H165" s="3">
         <v>7</v>
       </c>
-      <c r="I165" s="3"/>
+      <c r="I165" s="3">
+        <v>17</v>
+      </c>
       <c r="J165" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -8149,9 +8449,11 @@
       <c r="H166" s="3">
         <v>7</v>
       </c>
-      <c r="I166" s="3"/>
+      <c r="I166" s="3">
+        <v>18</v>
+      </c>
       <c r="J166" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -8179,9 +8481,11 @@
       <c r="H167" s="3">
         <v>7</v>
       </c>
-      <c r="I167" s="3"/>
+      <c r="I167" s="3">
+        <v>19</v>
+      </c>
       <c r="J167" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -8209,9 +8513,11 @@
       <c r="H168" s="3">
         <v>7</v>
       </c>
-      <c r="I168" s="3"/>
+      <c r="I168" s="3">
+        <v>20</v>
+      </c>
       <c r="J168" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -8239,9 +8545,11 @@
       <c r="H169" s="3">
         <v>7</v>
       </c>
-      <c r="I169" s="3"/>
+      <c r="I169" s="3">
+        <v>21</v>
+      </c>
       <c r="J169" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -8269,7 +8577,9 @@
       <c r="H170" s="3">
         <v>7</v>
       </c>
-      <c r="I170" s="3"/>
+      <c r="I170" s="3">
+        <v>25</v>
+      </c>
       <c r="J170" s="3">
         <v>1</v>
       </c>
@@ -8299,7 +8609,9 @@
       <c r="H171" s="3">
         <v>7</v>
       </c>
-      <c r="I171" s="3"/>
+      <c r="I171" s="3">
+        <v>17</v>
+      </c>
       <c r="J171" s="3">
         <v>1</v>
       </c>
@@ -8329,7 +8641,9 @@
       <c r="H172" s="3">
         <v>7</v>
       </c>
-      <c r="I172" s="3"/>
+      <c r="I172" s="3">
+        <v>17</v>
+      </c>
       <c r="J172" s="3">
         <v>1</v>
       </c>
@@ -8359,7 +8673,9 @@
       <c r="H173" s="3">
         <v>7</v>
       </c>
-      <c r="I173" s="3"/>
+      <c r="I173" s="3">
+        <v>17</v>
+      </c>
       <c r="J173" s="3">
         <v>1</v>
       </c>
@@ -8389,7 +8705,9 @@
       <c r="H174" s="3">
         <v>7</v>
       </c>
-      <c r="I174" s="3"/>
+      <c r="I174" s="3">
+        <v>7</v>
+      </c>
       <c r="J174" s="3">
         <v>1</v>
       </c>
@@ -8419,7 +8737,9 @@
       <c r="H175" s="3">
         <v>7</v>
       </c>
-      <c r="I175" s="3"/>
+      <c r="I175" s="3">
+        <v>23</v>
+      </c>
       <c r="J175" s="3">
         <v>1</v>
       </c>
@@ -8449,7 +8769,9 @@
       <c r="H176" s="3">
         <v>7</v>
       </c>
-      <c r="I176" s="3"/>
+      <c r="I176" s="3">
+        <v>7</v>
+      </c>
       <c r="J176" s="3">
         <v>1</v>
       </c>
@@ -8479,9 +8801,11 @@
       <c r="H177" s="3">
         <v>7</v>
       </c>
-      <c r="I177" s="3"/>
+      <c r="I177" s="3">
+        <v>22</v>
+      </c>
       <c r="J177" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -8509,7 +8833,9 @@
       <c r="H178" s="3">
         <v>7</v>
       </c>
-      <c r="I178" s="3"/>
+      <c r="I178" s="3">
+        <v>21</v>
+      </c>
       <c r="J178" s="3">
         <v>1</v>
       </c>
@@ -8539,7 +8865,9 @@
       <c r="H179" s="3">
         <v>7</v>
       </c>
-      <c r="I179" s="3"/>
+      <c r="I179" s="3">
+        <v>31</v>
+      </c>
       <c r="J179" s="3">
         <v>1</v>
       </c>
@@ -8569,7 +8897,9 @@
       <c r="H180" s="3">
         <v>7</v>
       </c>
-      <c r="I180" s="3"/>
+      <c r="I180" s="3">
+        <v>26</v>
+      </c>
       <c r="J180" s="3">
         <v>1</v>
       </c>
@@ -8599,7 +8929,9 @@
       <c r="H181" s="3">
         <v>7</v>
       </c>
-      <c r="I181" s="3"/>
+      <c r="I181" s="3">
+        <v>25</v>
+      </c>
       <c r="J181" s="3">
         <v>1</v>
       </c>
@@ -8757,7 +9089,9 @@
       <c r="H186" s="3">
         <v>7</v>
       </c>
-      <c r="I186" s="3"/>
+      <c r="I186" s="3">
+        <v>18</v>
+      </c>
       <c r="J186" s="3">
         <v>1</v>
       </c>
@@ -8787,7 +9121,9 @@
       <c r="H187" s="3">
         <v>7</v>
       </c>
-      <c r="I187" s="3"/>
+      <c r="I187" s="3">
+        <v>19</v>
+      </c>
       <c r="J187" s="3">
         <v>1</v>
       </c>
@@ -8849,9 +9185,11 @@
       <c r="H189" s="3">
         <v>7</v>
       </c>
-      <c r="I189" s="3"/>
+      <c r="I189" s="3">
+        <v>23</v>
+      </c>
       <c r="J189" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -8879,7 +9217,9 @@
       <c r="H190" s="3">
         <v>7</v>
       </c>
-      <c r="I190" s="3"/>
+      <c r="I190" s="3">
+        <v>12</v>
+      </c>
       <c r="J190" s="3">
         <v>1</v>
       </c>
@@ -8909,9 +9249,11 @@
       <c r="H191" s="3">
         <v>7</v>
       </c>
-      <c r="I191" s="3"/>
+      <c r="I191" s="3">
+        <v>24</v>
+      </c>
       <c r="J191" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -8939,9 +9281,11 @@
       <c r="H192" s="3">
         <v>7</v>
       </c>
-      <c r="I192" s="3"/>
+      <c r="I192" s="3">
+        <v>25</v>
+      </c>
       <c r="J192" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -9033,7 +9377,9 @@
       <c r="H195" s="3">
         <v>7</v>
       </c>
-      <c r="I195" s="3"/>
+      <c r="I195" s="3">
+        <v>20</v>
+      </c>
       <c r="J195" s="3">
         <v>1</v>
       </c>
@@ -9063,7 +9409,9 @@
       <c r="H196" s="3">
         <v>7</v>
       </c>
-      <c r="I196" s="3"/>
+      <c r="I196" s="3">
+        <v>27</v>
+      </c>
       <c r="J196" s="3">
         <v>1</v>
       </c>
@@ -9093,9 +9441,11 @@
       <c r="H197" s="3">
         <v>7</v>
       </c>
-      <c r="I197" s="3"/>
+      <c r="I197" s="3">
+        <v>26</v>
+      </c>
       <c r="J197" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -9123,7 +9473,9 @@
       <c r="H198" s="3">
         <v>7</v>
       </c>
-      <c r="I198" s="3"/>
+      <c r="I198" s="3">
+        <v>7</v>
+      </c>
       <c r="J198" s="3">
         <v>1</v>
       </c>
@@ -9153,7 +9505,9 @@
       <c r="H199" s="3">
         <v>7</v>
       </c>
-      <c r="I199" s="3"/>
+      <c r="I199" s="3">
+        <v>21</v>
+      </c>
       <c r="J199" s="3">
         <v>1</v>
       </c>
@@ -9215,7 +9569,9 @@
       <c r="H201" s="3">
         <v>7</v>
       </c>
-      <c r="I201" s="3"/>
+      <c r="I201" s="3">
+        <v>27</v>
+      </c>
       <c r="J201" s="3">
         <v>1</v>
       </c>
@@ -9245,9 +9601,11 @@
       <c r="H202" s="3">
         <v>7</v>
       </c>
-      <c r="I202" s="3"/>
+      <c r="I202" s="3">
+        <v>27</v>
+      </c>
       <c r="J202" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -9275,7 +9633,9 @@
       <c r="H203" s="3">
         <v>7</v>
       </c>
-      <c r="I203" s="3"/>
+      <c r="I203" s="3">
+        <v>10</v>
+      </c>
       <c r="J203" s="3">
         <v>1</v>
       </c>
@@ -9305,7 +9665,9 @@
       <c r="H204" s="3">
         <v>7</v>
       </c>
-      <c r="I204" s="3"/>
+      <c r="I204" s="3">
+        <v>10</v>
+      </c>
       <c r="J204" s="3">
         <v>1</v>
       </c>
@@ -9335,9 +9697,11 @@
       <c r="H205" s="3">
         <v>7</v>
       </c>
-      <c r="I205" s="3"/>
+      <c r="I205" s="3">
+        <v>28</v>
+      </c>
       <c r="J205" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -9365,7 +9729,9 @@
       <c r="H206" s="3">
         <v>7</v>
       </c>
-      <c r="I206" s="3"/>
+      <c r="I206" s="3">
+        <v>19</v>
+      </c>
       <c r="J206" s="3">
         <v>1</v>
       </c>
@@ -9395,7 +9761,9 @@
       <c r="H207" s="3">
         <v>7</v>
       </c>
-      <c r="I207" s="3"/>
+      <c r="I207" s="3">
+        <v>6</v>
+      </c>
       <c r="J207" s="3">
         <v>1</v>
       </c>
@@ -9425,7 +9793,9 @@
       <c r="H208" s="3">
         <v>7</v>
       </c>
-      <c r="I208" s="3"/>
+      <c r="I208" s="3">
+        <v>21</v>
+      </c>
       <c r="J208" s="3">
         <v>1</v>
       </c>
@@ -9455,7 +9825,9 @@
       <c r="H209" s="3">
         <v>7</v>
       </c>
-      <c r="I209" s="3"/>
+      <c r="I209" s="3">
+        <v>16</v>
+      </c>
       <c r="J209" s="3">
         <v>1</v>
       </c>
@@ -9485,7 +9857,9 @@
       <c r="H210" s="3">
         <v>7</v>
       </c>
-      <c r="I210" s="3"/>
+      <c r="I210" s="3">
+        <v>19</v>
+      </c>
       <c r="J210" s="3">
         <v>1</v>
       </c>
@@ -9515,7 +9889,9 @@
       <c r="H211" s="3">
         <v>7</v>
       </c>
-      <c r="I211" s="3"/>
+      <c r="I211" s="3">
+        <v>2</v>
+      </c>
       <c r="J211" s="3">
         <v>1</v>
       </c>
@@ -9545,7 +9921,9 @@
       <c r="H212" s="3">
         <v>7</v>
       </c>
-      <c r="I212" s="3"/>
+      <c r="I212" s="3">
+        <v>10</v>
+      </c>
       <c r="J212" s="3">
         <v>1</v>
       </c>
@@ -9575,7 +9953,9 @@
       <c r="H213" s="3">
         <v>7</v>
       </c>
-      <c r="I213" s="3"/>
+      <c r="I213" s="3">
+        <v>10</v>
+      </c>
       <c r="J213" s="3">
         <v>1</v>
       </c>
@@ -9605,7 +9985,9 @@
       <c r="H214" s="3">
         <v>7</v>
       </c>
-      <c r="I214" s="3"/>
+      <c r="I214" s="3">
+        <v>10</v>
+      </c>
       <c r="J214" s="3">
         <v>1</v>
       </c>
@@ -9635,7 +10017,9 @@
       <c r="H215" s="3">
         <v>7</v>
       </c>
-      <c r="I215" s="3"/>
+      <c r="I215" s="3">
+        <v>10</v>
+      </c>
       <c r="J215" s="3">
         <v>1</v>
       </c>
@@ -9645,7 +10029,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C216">
         <v>140</v>
@@ -9677,7 +10061,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C217">
         <v>144</v>
@@ -9709,7 +10093,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C218">
         <v>147</v>
@@ -9741,7 +10125,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C219">
         <v>150</v>
